--- a/files/output.xlsx
+++ b/files/output.xlsx
@@ -523,34 +523,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.428571</v>
+        <v>-0.111111</v>
       </c>
       <c r="G2" t="n">
-        <v>0.019074</v>
+        <v>0.021378</v>
       </c>
       <c r="H2" t="n">
         <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>21.760391</v>
+        <v>21.638142</v>
       </c>
       <c r="J2" t="n">
-        <v>21.904156</v>
+        <v>21.855257</v>
       </c>
       <c r="K2" t="n">
         <v>33</v>
       </c>
       <c r="L2" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M2" t="n">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -575,34 +575,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07692300000000001</v>
+        <v>0.142857</v>
       </c>
       <c r="G3" t="n">
-        <v>0.037791</v>
+        <v>0.036842</v>
       </c>
       <c r="H3" t="n">
         <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>25.558659</v>
+        <v>24.860335</v>
       </c>
       <c r="J3" t="n">
-        <v>20.223464</v>
+        <v>19.944134</v>
       </c>
       <c r="K3" t="n">
         <v>25</v>
       </c>
       <c r="L3" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M3" t="n">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -627,34 +627,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.166667</v>
+        <v>0.230769</v>
       </c>
       <c r="G4" t="n">
-        <v>0.049741</v>
+        <v>0.049952</v>
       </c>
       <c r="H4" t="n">
         <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>26.663381</v>
+        <v>26.269098</v>
       </c>
       <c r="J4" t="n">
-        <v>21.065352</v>
+        <v>20.907639</v>
       </c>
       <c r="K4" t="n">
         <v>26</v>
       </c>
       <c r="L4" t="n">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M4" t="n">
-        <v>965</v>
+        <v>1041</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -679,16 +679,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.666667</v>
+        <v>0.714286</v>
       </c>
       <c r="G5" t="n">
-        <v>0.024896</v>
+        <v>0.026718</v>
       </c>
       <c r="H5" t="n">
         <v>31</v>
@@ -706,7 +706,7 @@
         <v>131</v>
       </c>
       <c r="M5" t="n">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -731,34 +731,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>0.085714</v>
+        <v>0.111111</v>
       </c>
       <c r="G6" t="n">
-        <v>0.057661</v>
+        <v>0.053812</v>
       </c>
       <c r="H6" t="n">
         <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>23.41637</v>
+        <v>23.131673</v>
       </c>
       <c r="J6" t="n">
-        <v>18.966548</v>
+        <v>18.852669</v>
       </c>
       <c r="K6" t="n">
         <v>24</v>
       </c>
       <c r="L6" t="n">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M6" t="n">
-        <v>607</v>
+        <v>669</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -783,34 +783,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
         <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.111111</v>
       </c>
       <c r="G7" t="n">
-        <v>0.041597</v>
+        <v>0.039882</v>
       </c>
       <c r="H7" t="n">
         <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>29.457973</v>
+        <v>29.22231</v>
       </c>
       <c r="J7" t="n">
-        <v>22.183189</v>
+        <v>22.088924</v>
       </c>
       <c r="K7" t="n">
         <v>26</v>
       </c>
       <c r="L7" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M7" t="n">
-        <v>601</v>
+        <v>677</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -835,34 +835,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.170732</v>
+        <v>-0.142857</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="H8" t="n">
         <v>25</v>
       </c>
       <c r="I8" t="n">
-        <v>26.796117</v>
+        <v>26.472492</v>
       </c>
       <c r="J8" t="n">
-        <v>20.718447</v>
+        <v>20.588997</v>
       </c>
       <c r="K8" t="n">
         <v>25</v>
       </c>
       <c r="L8" t="n">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M8" t="n">
-        <v>820</v>
+        <v>875</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -887,34 +887,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.576923</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05071</v>
+        <v>0.048553</v>
       </c>
       <c r="H9" t="n">
         <v>29</v>
       </c>
       <c r="I9" t="n">
-        <v>26.37037</v>
+        <v>26.123457</v>
       </c>
       <c r="J9" t="n">
-        <v>22.148148</v>
+        <v>22.049383</v>
       </c>
       <c r="K9" t="n">
         <v>29</v>
       </c>
       <c r="L9" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M9" t="n">
-        <v>986</v>
+        <v>1071</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -939,34 +939,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>0.607843</v>
+        <v>0.607143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.058824</v>
+        <v>0.058333</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>23.812155</v>
+        <v>23.480663</v>
       </c>
       <c r="J10" t="n">
-        <v>19.524862</v>
+        <v>19.392265</v>
       </c>
       <c r="K10" t="n">
         <v>25</v>
       </c>
       <c r="L10" t="n">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M10" t="n">
-        <v>867</v>
+        <v>960</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -1000,25 +1000,25 @@
         <v>-0.304348</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08155999999999999</v>
+        <v>0.070336</v>
       </c>
       <c r="H11" t="n">
         <v>19</v>
       </c>
       <c r="I11" t="n">
-        <v>21.554252</v>
+        <v>21.260997</v>
       </c>
       <c r="J11" t="n">
-        <v>16.221701</v>
+        <v>16.104399</v>
       </c>
       <c r="K11" t="n">
         <v>19</v>
       </c>
       <c r="L11" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M11" t="n">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -1043,34 +1043,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.428571</v>
+        <v>0.666667</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02</v>
+        <v>0.030612</v>
       </c>
       <c r="H12" t="n">
         <v>22</v>
       </c>
       <c r="I12" t="n">
-        <v>23.809524</v>
+        <v>23.544974</v>
       </c>
       <c r="J12" t="n">
-        <v>18.32381</v>
+        <v>18.21799</v>
       </c>
       <c r="K12" t="n">
         <v>22</v>
       </c>
       <c r="L12" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M12" t="n">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -1095,34 +1095,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
         <v>38</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.407407</v>
+        <v>-0.310345</v>
       </c>
       <c r="G13" t="n">
-        <v>0.085174</v>
+        <v>0.080668</v>
       </c>
       <c r="H13" t="n">
         <v>21</v>
       </c>
       <c r="I13" t="n">
-        <v>20.536829</v>
+        <v>20.162297</v>
       </c>
       <c r="J13" t="n">
-        <v>16.614732</v>
+        <v>16.464919</v>
       </c>
       <c r="K13" t="n">
         <v>21</v>
       </c>
       <c r="L13" t="n">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M13" t="n">
-        <v>634</v>
+        <v>719</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
@@ -1147,34 +1147,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
         <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.066667</v>
       </c>
       <c r="G14" t="n">
-        <v>0.046901</v>
+        <v>0.043988</v>
       </c>
       <c r="H14" t="n">
         <v>23</v>
       </c>
       <c r="I14" t="n">
-        <v>22.026094</v>
+        <v>21.872602</v>
       </c>
       <c r="J14" t="n">
-        <v>18.010438</v>
+        <v>17.949041</v>
       </c>
       <c r="K14" t="n">
         <v>23</v>
       </c>
       <c r="L14" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M14" t="n">
-        <v>597</v>
+        <v>682</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
@@ -1199,34 +1199,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.230769</v>
+        <v>0.411765</v>
       </c>
       <c r="G15" t="n">
-        <v>0.044521</v>
+        <v>0.052632</v>
       </c>
       <c r="H15" t="n">
         <v>24</v>
       </c>
       <c r="I15" t="n">
-        <v>24.655436</v>
+        <v>24.042879</v>
       </c>
       <c r="J15" t="n">
-        <v>19.462174</v>
+        <v>19.217152</v>
       </c>
       <c r="K15" t="n">
         <v>24</v>
       </c>
       <c r="L15" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -1251,34 +1251,34 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
         <v>36</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5</v>
+        <v>-0.411765</v>
       </c>
       <c r="G16" t="n">
-        <v>0.074419</v>
+        <v>0.06701699999999999</v>
       </c>
       <c r="H16" t="n">
         <v>17</v>
       </c>
       <c r="I16" t="n">
-        <v>20.299813</v>
+        <v>19.987508</v>
       </c>
       <c r="J16" t="n">
-        <v>14.919925</v>
+        <v>14.795003</v>
       </c>
       <c r="K16" t="n">
         <v>17</v>
       </c>
       <c r="L16" t="n">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M16" t="n">
-        <v>645</v>
+        <v>761</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -1303,34 +1303,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.333333</v>
       </c>
       <c r="G17" t="n">
-        <v>0.026786</v>
+        <v>0.035503</v>
       </c>
       <c r="H17" t="n">
         <v>30</v>
       </c>
       <c r="I17" t="n">
-        <v>20.618557</v>
+        <v>19.868791</v>
       </c>
       <c r="J17" t="n">
-        <v>20.247423</v>
+        <v>19.947516</v>
       </c>
       <c r="K17" t="n">
         <v>30</v>
       </c>
       <c r="L17" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M17" t="n">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
@@ -1355,34 +1355,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>0.081081</v>
+        <v>0.142857</v>
       </c>
       <c r="G18" t="n">
-        <v>0.036275</v>
+        <v>0.037702</v>
       </c>
       <c r="H18" t="n">
         <v>26</v>
       </c>
       <c r="I18" t="n">
-        <v>29.426311</v>
+        <v>29.228487</v>
       </c>
       <c r="J18" t="n">
-        <v>22.170524</v>
+        <v>22.091395</v>
       </c>
       <c r="K18" t="n">
         <v>26</v>
       </c>
       <c r="L18" t="n">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M18" t="n">
-        <v>1020</v>
+        <v>1114</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -1407,34 +1407,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
         <v>32</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.185185</v>
+        <v>-0.103448</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08612400000000001</v>
+        <v>0.078804</v>
       </c>
       <c r="H19" t="n">
         <v>21</v>
       </c>
       <c r="I19" t="n">
-        <v>18.802902</v>
+        <v>17.956469</v>
       </c>
       <c r="J19" t="n">
-        <v>15.921161</v>
+        <v>15.582588</v>
       </c>
       <c r="K19" t="n">
         <v>21</v>
       </c>
       <c r="L19" t="n">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="M19" t="n">
-        <v>627</v>
+        <v>736</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -1459,34 +1459,34 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E20" t="n">
         <v>35</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.22807</v>
+        <v>-0.147541</v>
       </c>
       <c r="G20" t="n">
-        <v>0.063053</v>
+        <v>0.061307</v>
       </c>
       <c r="H20" t="n">
         <v>22</v>
       </c>
       <c r="I20" t="n">
-        <v>27.291559</v>
+        <v>26.877266</v>
       </c>
       <c r="J20" t="n">
-        <v>19.716624</v>
+        <v>19.550906</v>
       </c>
       <c r="K20" t="n">
         <v>22</v>
       </c>
       <c r="L20" t="n">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="M20" t="n">
-        <v>904</v>
+        <v>995</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
@@ -1511,34 +1511,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.266667</v>
+        <v>0.22449</v>
       </c>
       <c r="G21" t="n">
-        <v>0.040872</v>
+        <v>0.05518</v>
       </c>
       <c r="H21" t="n">
         <v>19</v>
       </c>
       <c r="I21" t="n">
-        <v>20.63922</v>
+        <v>19.71831</v>
       </c>
       <c r="J21" t="n">
-        <v>15.855688</v>
+        <v>15.487324</v>
       </c>
       <c r="K21" t="n">
         <v>19</v>
       </c>
       <c r="L21" t="n">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="M21" t="n">
-        <v>734</v>
+        <v>888</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -1563,34 +1563,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.07142900000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.057554</v>
+        <v>0.059638</v>
       </c>
       <c r="H22" t="n">
         <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>21.396283</v>
+        <v>20.693119</v>
       </c>
       <c r="J22" t="n">
-        <v>18.558513</v>
+        <v>18.277248</v>
       </c>
       <c r="K22" t="n">
         <v>25</v>
       </c>
       <c r="L22" t="n">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="M22" t="n">
-        <v>834</v>
+        <v>939</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
@@ -1615,34 +1615,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>0.095238</v>
+        <v>0.191489</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06930699999999999</v>
+        <v>0.068413</v>
       </c>
       <c r="H23" t="n">
         <v>24</v>
       </c>
       <c r="I23" t="n">
-        <v>20.492349</v>
+        <v>19.827013</v>
       </c>
       <c r="J23" t="n">
-        <v>17.79694</v>
+        <v>17.530805</v>
       </c>
       <c r="K23" t="n">
         <v>24</v>
       </c>
       <c r="L23" t="n">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="M23" t="n">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="N23" t="n">
         <v>1</v>
@@ -1667,34 +1667,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>0.428571</v>
+        <v>0.466667</v>
       </c>
       <c r="G24" t="n">
-        <v>0.039216</v>
+        <v>0.037406</v>
       </c>
       <c r="H24" t="n">
         <v>19</v>
       </c>
       <c r="I24" t="n">
-        <v>17.798595</v>
+        <v>17.564403</v>
       </c>
       <c r="J24" t="n">
-        <v>14.719438</v>
+        <v>14.625761</v>
       </c>
       <c r="K24" t="n">
         <v>19</v>
       </c>
       <c r="L24" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M24" t="n">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -1719,34 +1719,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" t="n">
-        <v>0.242424</v>
+        <v>0.287671</v>
       </c>
       <c r="G25" t="n">
-        <v>0.092958</v>
+        <v>0.08816400000000001</v>
       </c>
       <c r="H25" t="n">
         <v>25</v>
       </c>
       <c r="I25" t="n">
-        <v>22.107675</v>
+        <v>21.592211</v>
       </c>
       <c r="J25" t="n">
-        <v>18.84307</v>
+        <v>18.636884</v>
       </c>
       <c r="K25" t="n">
         <v>25</v>
       </c>
       <c r="L25" t="n">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M25" t="n">
-        <v>710</v>
+        <v>828</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
@@ -1771,34 +1771,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" t="n">
         <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>0.25</v>
+        <v>0.368421</v>
       </c>
       <c r="G26" t="n">
-        <v>0.045455</v>
+        <v>0.04798</v>
       </c>
       <c r="H26" t="n">
         <v>23</v>
       </c>
       <c r="I26" t="n">
-        <v>19.855596</v>
+        <v>19.253911</v>
       </c>
       <c r="J26" t="n">
-        <v>17.142238</v>
+        <v>16.901564</v>
       </c>
       <c r="K26" t="n">
         <v>23</v>
       </c>
       <c r="L26" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M26" t="n">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
@@ -1823,34 +1823,34 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E27" t="n">
         <v>31</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.265306</v>
+        <v>-0.169811</v>
       </c>
       <c r="G27" t="n">
-        <v>0.048563</v>
+        <v>0.046127</v>
       </c>
       <c r="H27" t="n">
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>21.970322</v>
+        <v>21.805441</v>
       </c>
       <c r="J27" t="n">
-        <v>20.788129</v>
+        <v>20.722176</v>
       </c>
       <c r="K27" t="n">
         <v>30</v>
       </c>
       <c r="L27" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M27" t="n">
-        <v>1009</v>
+        <v>1149</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -1875,34 +1875,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.4</v>
+        <v>-0.333333</v>
       </c>
       <c r="G28" t="n">
-        <v>0.048876</v>
+        <v>0.047703</v>
       </c>
       <c r="H28" t="n">
         <v>23</v>
       </c>
       <c r="I28" t="n">
-        <v>20.589456</v>
+        <v>20.215857</v>
       </c>
       <c r="J28" t="n">
-        <v>17.435782</v>
+        <v>17.286343</v>
       </c>
       <c r="K28" t="n">
         <v>23</v>
       </c>
       <c r="L28" t="n">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="M28" t="n">
-        <v>1023</v>
+        <v>1132</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
@@ -1927,34 +1927,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E29" t="n">
         <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1875</v>
+        <v>-0.027027</v>
       </c>
       <c r="G29" t="n">
-        <v>0.050314</v>
+        <v>0.053546</v>
       </c>
       <c r="H29" t="n">
         <v>22</v>
       </c>
       <c r="I29" t="n">
-        <v>28.183873</v>
+        <v>27.354936</v>
       </c>
       <c r="J29" t="n">
-        <v>20.073549</v>
+        <v>19.741974</v>
       </c>
       <c r="K29" t="n">
         <v>22</v>
       </c>
       <c r="L29" t="n">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="M29" t="n">
-        <v>636</v>
+        <v>691</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
@@ -1979,34 +1979,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
         <v>20</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.25</v>
+        <v>-0.142857</v>
       </c>
       <c r="G30" t="n">
-        <v>0.050955</v>
+        <v>0.048343</v>
       </c>
       <c r="H30" t="n">
         <v>18</v>
       </c>
       <c r="I30" t="n">
-        <v>21.045296</v>
+        <v>20.557491</v>
       </c>
       <c r="J30" t="n">
-        <v>15.618118</v>
+        <v>15.422996</v>
       </c>
       <c r="K30" t="n">
         <v>18</v>
       </c>
       <c r="L30" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M30" t="n">
-        <v>628</v>
+        <v>724</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
@@ -2031,34 +2031,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E31" t="n">
         <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.028571</v>
+        <v>0.121951</v>
       </c>
       <c r="G31" t="n">
-        <v>0.050578</v>
+        <v>0.049697</v>
       </c>
       <c r="H31" t="n">
         <v>29</v>
       </c>
       <c r="I31" t="n">
-        <v>20.399352</v>
+        <v>19.96762</v>
       </c>
       <c r="J31" t="n">
-        <v>19.759741</v>
+        <v>19.587048</v>
       </c>
       <c r="K31" t="n">
         <v>29</v>
       </c>
       <c r="L31" t="n">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M31" t="n">
-        <v>692</v>
+        <v>825</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
@@ -2083,34 +2083,34 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E32" t="n">
         <v>14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.348837</v>
+        <v>0.377778</v>
       </c>
       <c r="G32" t="n">
-        <v>0.052761</v>
+        <v>0.049234</v>
       </c>
       <c r="H32" t="n">
         <v>24</v>
       </c>
       <c r="I32" t="n">
-        <v>22.234043</v>
+        <v>22.074468</v>
       </c>
       <c r="J32" t="n">
-        <v>18.493617</v>
+        <v>18.429787</v>
       </c>
       <c r="K32" t="n">
         <v>24</v>
       </c>
       <c r="L32" t="n">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M32" t="n">
-        <v>815</v>
+        <v>914</v>
       </c>
       <c r="N32" t="n">
         <v>1</v>
@@ -2135,34 +2135,34 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>0.714286</v>
+        <v>0.733333</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04947</v>
+        <v>0.050167</v>
       </c>
       <c r="H33" t="n">
         <v>25</v>
       </c>
       <c r="I33" t="n">
-        <v>28.298611</v>
+        <v>27.951389</v>
       </c>
       <c r="J33" t="n">
-        <v>21.319444</v>
+        <v>21.180556</v>
       </c>
       <c r="K33" t="n">
         <v>25</v>
       </c>
       <c r="L33" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M33" t="n">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="N33" t="n">
         <v>1</v>
@@ -2187,34 +2187,34 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E34" t="n">
         <v>27</v>
       </c>
       <c r="F34" t="n">
-        <v>0.035714</v>
+        <v>0.15625</v>
       </c>
       <c r="G34" t="n">
-        <v>0.073587</v>
+        <v>0.070718</v>
       </c>
       <c r="H34" t="n">
         <v>191</v>
       </c>
       <c r="I34" t="n">
-        <v>21.552176</v>
+        <v>21.185107</v>
       </c>
       <c r="J34" t="n">
-        <v>85.02087</v>
+        <v>84.874043</v>
       </c>
       <c r="K34" t="n">
         <v>191</v>
       </c>
       <c r="L34" t="n">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M34" t="n">
-        <v>761</v>
+        <v>905</v>
       </c>
       <c r="N34" t="n">
         <v>1</v>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2248,25 +2248,25 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.028112</v>
+        <v>0.033395</v>
       </c>
       <c r="H35" t="n">
         <v>19</v>
       </c>
       <c r="I35" t="n">
-        <v>26.489459</v>
+        <v>26.306141</v>
       </c>
       <c r="J35" t="n">
-        <v>18.195784</v>
+        <v>18.122456</v>
       </c>
       <c r="K35" t="n">
         <v>19</v>
       </c>
       <c r="L35" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M35" t="n">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="N35" t="n">
         <v>1</v>
@@ -2300,25 +2300,25 @@
         <v>0.4</v>
       </c>
       <c r="G36" t="n">
-        <v>0.025445</v>
+        <v>0.024272</v>
       </c>
       <c r="H36" t="n">
         <v>21</v>
       </c>
       <c r="I36" t="n">
-        <v>26.658625</v>
+        <v>26.41737</v>
       </c>
       <c r="J36" t="n">
-        <v>19.06345</v>
+        <v>18.966948</v>
       </c>
       <c r="K36" t="n">
         <v>21</v>
       </c>
       <c r="L36" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M36" t="n">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="N36" t="n">
         <v>1</v>
@@ -2352,25 +2352,25 @@
         <v>-0.333333</v>
       </c>
       <c r="G37" t="n">
-        <v>0.039474</v>
+        <v>0.031414</v>
       </c>
       <c r="H37" t="n">
         <v>28</v>
       </c>
       <c r="I37" t="n">
-        <v>25.675676</v>
+        <v>25.135135</v>
       </c>
       <c r="J37" t="n">
-        <v>21.47027</v>
+        <v>21.254054</v>
       </c>
       <c r="K37" t="n">
         <v>28</v>
       </c>
       <c r="L37" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M37" t="n">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="N37" t="n">
         <v>1</v>
@@ -2395,16 +2395,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.404255</v>
+        <v>-0.4</v>
       </c>
       <c r="G38" t="n">
-        <v>0.093069</v>
+        <v>0.08771900000000001</v>
       </c>
       <c r="H38" t="n">
         <v>22</v>
@@ -2422,7 +2422,7 @@
         <v>255</v>
       </c>
       <c r="M38" t="n">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="N38" t="n">
         <v>1</v>
@@ -2447,16 +2447,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" t="n">
         <v>38</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.767442</v>
+        <v>-0.7272729999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>0.063704</v>
+        <v>0.05914</v>
       </c>
       <c r="H39" t="n">
         <v>28</v>
@@ -2474,7 +2474,7 @@
         <v>352</v>
       </c>
       <c r="M39" t="n">
-        <v>675</v>
+        <v>744</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
@@ -2499,16 +2499,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.230769</v>
+        <v>-0.142857</v>
       </c>
       <c r="G40" t="n">
-        <v>0.037037</v>
+        <v>0.035806</v>
       </c>
       <c r="H40" t="n">
         <v>27</v>
@@ -2526,7 +2526,7 @@
         <v>174</v>
       </c>
       <c r="M40" t="n">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="N40" t="n">
         <v>1</v>
@@ -2551,34 +2551,34 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E41" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.269841</v>
+        <v>-0.037975</v>
       </c>
       <c r="G41" t="n">
-        <v>0.075</v>
+        <v>0.08086</v>
       </c>
       <c r="H41" t="n">
         <v>20</v>
       </c>
       <c r="I41" t="n">
-        <v>19.899589</v>
+        <v>19.21497</v>
       </c>
       <c r="J41" t="n">
-        <v>15.959836</v>
+        <v>15.685988</v>
       </c>
       <c r="K41" t="n">
         <v>20</v>
       </c>
       <c r="L41" t="n">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="M41" t="n">
-        <v>840</v>
+        <v>977</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
@@ -2603,34 +2603,34 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8823530000000001</v>
+        <v>0.888889</v>
       </c>
       <c r="G42" t="n">
-        <v>0.050898</v>
+        <v>0.046875</v>
       </c>
       <c r="H42" t="n">
         <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>24.191462</v>
+        <v>23.803364</v>
       </c>
       <c r="J42" t="n">
-        <v>17.676585</v>
+        <v>17.521346</v>
       </c>
       <c r="K42" t="n">
         <v>20</v>
       </c>
       <c r="L42" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M42" t="n">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="N42" t="n">
         <v>1</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2664,25 +2664,25 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01</v>
+        <v>0.017544</v>
       </c>
       <c r="H43" t="n">
         <v>25</v>
       </c>
       <c r="I43" t="n">
-        <v>20.930233</v>
+        <v>20</v>
       </c>
       <c r="J43" t="n">
-        <v>18.372093</v>
+        <v>18</v>
       </c>
       <c r="K43" t="n">
         <v>25</v>
       </c>
       <c r="L43" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="N43" t="n">
         <v>1</v>
@@ -2707,34 +2707,34 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
       </c>
       <c r="F44" t="n">
-        <v>0.052632</v>
+        <v>0.142857</v>
       </c>
       <c r="G44" t="n">
-        <v>0.033159</v>
+        <v>0.032812</v>
       </c>
       <c r="H44" t="n">
         <v>28</v>
       </c>
       <c r="I44" t="n">
-        <v>22.179289</v>
+        <v>21.638331</v>
       </c>
       <c r="J44" t="n">
-        <v>20.071716</v>
+        <v>19.855332</v>
       </c>
       <c r="K44" t="n">
         <v>28</v>
       </c>
       <c r="L44" t="n">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M44" t="n">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="N44" t="n">
         <v>1</v>
@@ -2759,34 +2759,34 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>0.333333</v>
+        <v>0.466667</v>
       </c>
       <c r="G45" t="n">
-        <v>0.033803</v>
+        <v>0.040107</v>
       </c>
       <c r="H45" t="n">
         <v>30</v>
       </c>
       <c r="I45" t="n">
-        <v>27.966102</v>
+        <v>27.40113</v>
       </c>
       <c r="J45" t="n">
-        <v>23.186441</v>
+        <v>22.960452</v>
       </c>
       <c r="K45" t="n">
         <v>30</v>
       </c>
       <c r="L45" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M45" t="n">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="N45" t="n">
         <v>1</v>
@@ -2811,34 +2811,34 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E46" t="n">
         <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>0.142857</v>
+        <v>0.368421</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08</v>
+        <v>0.09596</v>
       </c>
       <c r="H46" t="n">
         <v>16</v>
       </c>
       <c r="I46" t="n">
-        <v>22.123894</v>
+        <v>21.238938</v>
       </c>
       <c r="J46" t="n">
-        <v>15.249558</v>
+        <v>14.895575</v>
       </c>
       <c r="K46" t="n">
         <v>16</v>
       </c>
       <c r="L46" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M46" t="n">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
@@ -2872,25 +2872,25 @@
         <v>0.999999</v>
       </c>
       <c r="G47" t="n">
-        <v>0.010309</v>
+        <v>0.009901</v>
       </c>
       <c r="H47" t="n">
         <v>17</v>
       </c>
       <c r="I47" t="n">
-        <v>27.894737</v>
+        <v>26.842105</v>
       </c>
       <c r="J47" t="n">
-        <v>17.957895</v>
+        <v>17.536842</v>
       </c>
       <c r="K47" t="n">
         <v>17</v>
       </c>
       <c r="L47" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M47" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
@@ -2924,25 +2924,25 @@
         <v>0.166667</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06575300000000001</v>
+        <v>0.05985</v>
       </c>
       <c r="H48" t="n">
         <v>17</v>
       </c>
       <c r="I48" t="n">
-        <v>15.866388</v>
+        <v>15.448852</v>
       </c>
       <c r="J48" t="n">
-        <v>13.146555</v>
+        <v>12.979541</v>
       </c>
       <c r="K48" t="n">
         <v>17</v>
       </c>
       <c r="L48" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M48" t="n">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0.043011</v>
+        <v>0.038095</v>
       </c>
       <c r="H49" t="n">
         <v>21</v>
@@ -2994,7 +2994,7 @@
         <v>40</v>
       </c>
       <c r="M49" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
@@ -3019,34 +3019,34 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E50" t="n">
         <v>22</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.189189</v>
+        <v>-0.128205</v>
       </c>
       <c r="G50" t="n">
-        <v>0.059581</v>
+        <v>0.058559</v>
       </c>
       <c r="H50" t="n">
         <v>24</v>
       </c>
       <c r="I50" t="n">
-        <v>29.825889</v>
+        <v>29.523089</v>
       </c>
       <c r="J50" t="n">
-        <v>21.530356</v>
+        <v>21.409236</v>
       </c>
       <c r="K50" t="n">
         <v>24</v>
       </c>
       <c r="L50" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M50" t="n">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c r="N50" t="n">
         <v>1</v>
@@ -3080,25 +3080,25 @@
         <v>-0.68421</v>
       </c>
       <c r="G51" t="n">
-        <v>0.073643</v>
+        <v>0.064626</v>
       </c>
       <c r="H51" t="n">
         <v>29</v>
       </c>
       <c r="I51" t="n">
-        <v>24.422442</v>
+        <v>24.257426</v>
       </c>
       <c r="J51" t="n">
-        <v>21.368977</v>
+        <v>21.30297</v>
       </c>
       <c r="K51" t="n">
         <v>29</v>
       </c>
       <c r="L51" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M51" t="n">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="N51" t="n">
         <v>1</v>
@@ -3123,34 +3123,34 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52" t="n">
         <v>20</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.212121</v>
+        <v>-0.176471</v>
       </c>
       <c r="G52" t="n">
-        <v>0.067485</v>
+        <v>0.061151</v>
       </c>
       <c r="H52" t="n">
         <v>22</v>
       </c>
       <c r="I52" t="n">
-        <v>19.725557</v>
+        <v>19.296741</v>
       </c>
       <c r="J52" t="n">
-        <v>16.690223</v>
+        <v>16.518696</v>
       </c>
       <c r="K52" t="n">
         <v>22</v>
       </c>
       <c r="L52" t="n">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M52" t="n">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="N52" t="n">
         <v>1</v>
@@ -3175,34 +3175,34 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E53" t="n">
         <v>37</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.608696</v>
+        <v>-0.345455</v>
       </c>
       <c r="G53" t="n">
-        <v>0.052154</v>
+        <v>0.056818</v>
       </c>
       <c r="H53" t="n">
         <v>27</v>
       </c>
       <c r="I53" t="n">
-        <v>25.188537</v>
+        <v>24.384113</v>
       </c>
       <c r="J53" t="n">
-        <v>20.875415</v>
+        <v>20.553645</v>
       </c>
       <c r="K53" t="n">
         <v>27</v>
       </c>
       <c r="L53" t="n">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="M53" t="n">
-        <v>882</v>
+        <v>968</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
@@ -3227,34 +3227,34 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.032258</v>
+        <v>0.081081</v>
       </c>
       <c r="G54" t="n">
-        <v>0.041278</v>
+        <v>0.042286</v>
       </c>
       <c r="H54" t="n">
         <v>28</v>
       </c>
       <c r="I54" t="n">
-        <v>19.290928</v>
+        <v>18.561001</v>
       </c>
       <c r="J54" t="n">
-        <v>18.916371</v>
+        <v>18.6244</v>
       </c>
       <c r="K54" t="n">
         <v>28</v>
       </c>
       <c r="L54" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="M54" t="n">
-        <v>751</v>
+        <v>875</v>
       </c>
       <c r="N54" t="n">
         <v>1</v>
@@ -3279,34 +3279,34 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E55" t="n">
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.478261</v>
+        <v>-0.096774</v>
       </c>
       <c r="G55" t="n">
-        <v>0.032951</v>
+        <v>0.040052</v>
       </c>
       <c r="H55" t="n">
         <v>21</v>
       </c>
       <c r="I55" t="n">
-        <v>18.801898</v>
+        <v>18.386714</v>
       </c>
       <c r="J55" t="n">
-        <v>15.920759</v>
+        <v>15.754686</v>
       </c>
       <c r="K55" t="n">
         <v>21</v>
       </c>
       <c r="L55" t="n">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M55" t="n">
-        <v>698</v>
+        <v>774</v>
       </c>
       <c r="N55" t="n">
         <v>1</v>
@@ -3331,34 +3331,34 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>0.444444</v>
+        <v>0.5</v>
       </c>
       <c r="G56" t="n">
-        <v>0.051136</v>
+        <v>0.051813</v>
       </c>
       <c r="H56" t="n">
         <v>16</v>
       </c>
       <c r="I56" t="n">
-        <v>18.290258</v>
+        <v>18.190855</v>
       </c>
       <c r="J56" t="n">
-        <v>13.716103</v>
+        <v>13.676342</v>
       </c>
       <c r="K56" t="n">
         <v>16</v>
       </c>
       <c r="L56" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M56" t="n">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
@@ -3383,34 +3383,34 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E57" t="n">
         <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>0.571429</v>
+        <v>0.612903</v>
       </c>
       <c r="G57" t="n">
-        <v>0.049734</v>
+        <v>0.046899</v>
       </c>
       <c r="H57" t="n">
         <v>25</v>
       </c>
       <c r="I57" t="n">
-        <v>17.892157</v>
+        <v>17.647059</v>
       </c>
       <c r="J57" t="n">
-        <v>17.156863</v>
+        <v>17.058824</v>
       </c>
       <c r="K57" t="n">
         <v>25</v>
       </c>
       <c r="L57" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M57" t="n">
-        <v>563</v>
+        <v>661</v>
       </c>
       <c r="N57" t="n">
         <v>1</v>
@@ -3435,16 +3435,16 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>0.466667</v>
+        <v>0.5</v>
       </c>
       <c r="G58" t="n">
-        <v>0.07281600000000001</v>
+        <v>0.067511</v>
       </c>
       <c r="H58" t="n">
         <v>34</v>
@@ -3462,7 +3462,7 @@
         <v>116</v>
       </c>
       <c r="M58" t="n">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="N58" t="n">
         <v>1</v>
@@ -3487,34 +3487,34 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
       </c>
       <c r="F59" t="n">
-        <v>0.315789</v>
+        <v>0.35</v>
       </c>
       <c r="G59" t="n">
-        <v>0.047441</v>
+        <v>0.044693</v>
       </c>
       <c r="H59" t="n">
         <v>26</v>
       </c>
       <c r="I59" t="n">
-        <v>24.075097</v>
+        <v>23.854224</v>
       </c>
       <c r="J59" t="n">
-        <v>20.030039</v>
+        <v>19.94169</v>
       </c>
       <c r="K59" t="n">
         <v>26</v>
       </c>
       <c r="L59" t="n">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M59" t="n">
-        <v>801</v>
+        <v>895</v>
       </c>
       <c r="N59" t="n">
         <v>1</v>
@@ -3539,34 +3539,34 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E60" t="n">
         <v>55</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.803279</v>
+        <v>-0.692308</v>
       </c>
       <c r="G60" t="n">
-        <v>0.147343</v>
+        <v>0.132383</v>
       </c>
       <c r="H60" t="n">
         <v>15</v>
       </c>
       <c r="I60" t="n">
-        <v>17.832765</v>
+        <v>17.662116</v>
       </c>
       <c r="J60" t="n">
-        <v>13.133106</v>
+        <v>13.064846</v>
       </c>
       <c r="K60" t="n">
         <v>15</v>
       </c>
       <c r="L60" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M60" t="n">
-        <v>414</v>
+        <v>491</v>
       </c>
       <c r="N60" t="n">
         <v>1</v>
@@ -3591,34 +3591,34 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E61" t="n">
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>0.291667</v>
+        <v>0.37037</v>
       </c>
       <c r="G61" t="n">
-        <v>0.096</v>
+        <v>0.094903</v>
       </c>
       <c r="H61" t="n">
         <v>17</v>
       </c>
       <c r="I61" t="n">
-        <v>13.548884</v>
+        <v>13.163972</v>
       </c>
       <c r="J61" t="n">
-        <v>12.219554</v>
+        <v>12.065589</v>
       </c>
       <c r="K61" t="n">
         <v>17</v>
       </c>
       <c r="L61" t="n">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M61" t="n">
-        <v>500</v>
+        <v>569</v>
       </c>
       <c r="N61" t="n">
         <v>1</v>
@@ -3652,25 +3652,25 @@
         <v>-0.714286</v>
       </c>
       <c r="G62" t="n">
-        <v>0.09120499999999999</v>
+        <v>0.082596</v>
       </c>
       <c r="H62" t="n">
         <v>29</v>
       </c>
       <c r="I62" t="n">
-        <v>19.047619</v>
+        <v>18.518519</v>
       </c>
       <c r="J62" t="n">
-        <v>19.219048</v>
+        <v>19.007408</v>
       </c>
       <c r="K62" t="n">
         <v>29</v>
       </c>
       <c r="L62" t="n">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M62" t="n">
-        <v>614</v>
+        <v>678</v>
       </c>
       <c r="N62" t="n">
         <v>1</v>
@@ -3695,34 +3695,34 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E63" t="n">
         <v>12</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07692300000000001</v>
+        <v>0.111111</v>
       </c>
       <c r="G63" t="n">
-        <v>0.035813</v>
+        <v>0.033792</v>
       </c>
       <c r="H63" t="n">
         <v>21</v>
       </c>
       <c r="I63" t="n">
-        <v>22.601918</v>
+        <v>22.182254</v>
       </c>
       <c r="J63" t="n">
-        <v>17.440767</v>
+        <v>17.272902</v>
       </c>
       <c r="K63" t="n">
         <v>21</v>
       </c>
       <c r="L63" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="M63" t="n">
-        <v>726</v>
+        <v>799</v>
       </c>
       <c r="N63" t="n">
         <v>1</v>
@@ -3747,34 +3747,34 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
         <v>62</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.823529</v>
+        <v>-0.722222</v>
       </c>
       <c r="G64" t="n">
-        <v>0.155251</v>
+        <v>0.138996</v>
       </c>
       <c r="H64" t="n">
         <v>15</v>
       </c>
       <c r="I64" t="n">
-        <v>18.485342</v>
+        <v>18.322476</v>
       </c>
       <c r="J64" t="n">
-        <v>13.394137</v>
+        <v>13.32899</v>
       </c>
       <c r="K64" t="n">
         <v>15</v>
       </c>
       <c r="L64" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M64" t="n">
-        <v>438</v>
+        <v>518</v>
       </c>
       <c r="N64" t="n">
         <v>1</v>
@@ -3799,34 +3799,34 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E65" t="n">
         <v>33</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.157895</v>
+        <v>-0.064516</v>
       </c>
       <c r="G65" t="n">
-        <v>0.080622</v>
+        <v>0.07838199999999999</v>
       </c>
       <c r="H65" t="n">
         <v>32</v>
       </c>
       <c r="I65" t="n">
-        <v>19.79346</v>
+        <v>18.990247</v>
       </c>
       <c r="J65" t="n">
-        <v>20.717384</v>
+        <v>20.396099</v>
       </c>
       <c r="K65" t="n">
         <v>32</v>
       </c>
       <c r="L65" t="n">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="M65" t="n">
-        <v>707</v>
+        <v>791</v>
       </c>
       <c r="N65" t="n">
         <v>1</v>
@@ -3851,34 +3851,34 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="G66" t="n">
-        <v>0.026247</v>
+        <v>0.036058</v>
       </c>
       <c r="H66" t="n">
         <v>37</v>
       </c>
       <c r="I66" t="n">
-        <v>21.101993</v>
+        <v>20.28136</v>
       </c>
       <c r="J66" t="n">
-        <v>23.240797</v>
+        <v>22.912544</v>
       </c>
       <c r="K66" t="n">
         <v>37</v>
       </c>
       <c r="L66" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M66" t="n">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="N66" t="n">
         <v>1</v>
@@ -3903,34 +3903,34 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.703704</v>
+        <v>-0.6</v>
       </c>
       <c r="G67" t="n">
-        <v>0.042857</v>
+        <v>0.044577</v>
       </c>
       <c r="H67" t="n">
         <v>37</v>
       </c>
       <c r="I67" t="n">
-        <v>22.696629</v>
+        <v>22.397004</v>
       </c>
       <c r="J67" t="n">
-        <v>23.878652</v>
+        <v>23.758802</v>
       </c>
       <c r="K67" t="n">
         <v>37</v>
       </c>
       <c r="L67" t="n">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M67" t="n">
-        <v>630</v>
+        <v>673</v>
       </c>
       <c r="N67" t="n">
         <v>1</v>
@@ -3955,34 +3955,34 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68" t="n">
         <v>44</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.72549</v>
+        <v>-0.692308</v>
       </c>
       <c r="G68" t="n">
-        <v>0.062808</v>
+        <v>0.05708</v>
       </c>
       <c r="H68" t="n">
         <v>27</v>
       </c>
       <c r="I68" t="n">
-        <v>22.854188</v>
+        <v>22.699069</v>
       </c>
       <c r="J68" t="n">
-        <v>19.941675</v>
+        <v>19.879628</v>
       </c>
       <c r="K68" t="n">
         <v>27</v>
       </c>
       <c r="L68" t="n">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M68" t="n">
-        <v>812</v>
+        <v>911</v>
       </c>
       <c r="N68" t="n">
         <v>1</v>
@@ -4016,25 +4016,25 @@
         <v>-0.920635</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06965200000000001</v>
+        <v>0.065387</v>
       </c>
       <c r="H69" t="n">
         <v>22</v>
       </c>
       <c r="I69" t="n">
-        <v>16.901408</v>
+        <v>16.549296</v>
       </c>
       <c r="J69" t="n">
-        <v>15.560563</v>
+        <v>15.419718</v>
       </c>
       <c r="K69" t="n">
         <v>22</v>
       </c>
       <c r="L69" t="n">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="M69" t="n">
-        <v>1809</v>
+        <v>1927</v>
       </c>
       <c r="N69" t="n">
         <v>1</v>
@@ -4068,25 +4068,25 @@
         <v>-0.55</v>
       </c>
       <c r="G70" t="n">
-        <v>0.047337</v>
+        <v>0.043526</v>
       </c>
       <c r="H70" t="n">
         <v>24</v>
       </c>
       <c r="I70" t="n">
-        <v>21.745789</v>
+        <v>21.235324</v>
       </c>
       <c r="J70" t="n">
-        <v>18.298316</v>
+        <v>18.09413</v>
       </c>
       <c r="K70" t="n">
         <v>24</v>
       </c>
       <c r="L70" t="n">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="M70" t="n">
-        <v>845</v>
+        <v>919</v>
       </c>
       <c r="N70" t="n">
         <v>1</v>
@@ -4111,34 +4111,34 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E71" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.576923</v>
+        <v>-0.555556</v>
       </c>
       <c r="G71" t="n">
-        <v>0.062425</v>
+        <v>0.059471</v>
       </c>
       <c r="H71" t="n">
         <v>29</v>
       </c>
       <c r="I71" t="n">
-        <v>29.411765</v>
+        <v>29.235294</v>
       </c>
       <c r="J71" t="n">
-        <v>23.364706</v>
+        <v>23.294118</v>
       </c>
       <c r="K71" t="n">
         <v>29</v>
       </c>
       <c r="L71" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M71" t="n">
-        <v>833</v>
+        <v>908</v>
       </c>
       <c r="N71" t="n">
         <v>1</v>
@@ -4163,16 +4163,16 @@
         </is>
       </c>
       <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-0.999999</v>
-      </c>
       <c r="G72" t="n">
-        <v>0.013514</v>
+        <v>0.022727</v>
       </c>
       <c r="H72" t="n">
         <v>22</v>
@@ -4190,7 +4190,7 @@
         <v>35</v>
       </c>
       <c r="M72" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="N72" t="n">
         <v>1</v>
@@ -4215,34 +4215,34 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.846154</v>
+        <v>0.875</v>
       </c>
       <c r="G73" t="n">
-        <v>0.029613</v>
+        <v>0.030651</v>
       </c>
       <c r="H73" t="n">
         <v>29</v>
       </c>
       <c r="I73" t="n">
-        <v>20.499569</v>
+        <v>19.982773</v>
       </c>
       <c r="J73" t="n">
-        <v>19.799828</v>
+        <v>19.593109</v>
       </c>
       <c r="K73" t="n">
         <v>29</v>
       </c>
       <c r="L73" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M73" t="n">
-        <v>439</v>
+        <v>522</v>
       </c>
       <c r="N73" t="n">
         <v>1</v>
@@ -4267,34 +4267,34 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E74" t="n">
         <v>29</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.137255</v>
+        <v>-0.074074</v>
       </c>
       <c r="G74" t="n">
-        <v>0.07083299999999999</v>
+        <v>0.059406</v>
       </c>
       <c r="H74" t="n">
         <v>17</v>
       </c>
       <c r="I74" t="n">
-        <v>19.217604</v>
+        <v>19.070905</v>
       </c>
       <c r="J74" t="n">
-        <v>14.487042</v>
+        <v>14.428362</v>
       </c>
       <c r="K74" t="n">
         <v>17</v>
       </c>
       <c r="L74" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M74" t="n">
-        <v>720</v>
+        <v>909</v>
       </c>
       <c r="N74" t="n">
         <v>1</v>
@@ -4319,34 +4319,34 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E75" t="n">
         <v>14</v>
       </c>
       <c r="F75" t="n">
-        <v>0.034483</v>
+        <v>0.125</v>
       </c>
       <c r="G75" t="n">
-        <v>0.033839</v>
+        <v>0.03299</v>
       </c>
       <c r="H75" t="n">
         <v>22</v>
       </c>
       <c r="I75" t="n">
-        <v>23.624754</v>
+        <v>23.084479</v>
       </c>
       <c r="J75" t="n">
-        <v>18.249902</v>
+        <v>18.033792</v>
       </c>
       <c r="K75" t="n">
         <v>22</v>
       </c>
       <c r="L75" t="n">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="M75" t="n">
-        <v>857</v>
+        <v>970</v>
       </c>
       <c r="N75" t="n">
         <v>1</v>
@@ -4371,34 +4371,34 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E76" t="n">
         <v>19</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.7272729999999999</v>
+        <v>-0.52</v>
       </c>
       <c r="G76" t="n">
-        <v>0.041199</v>
+        <v>0.041322</v>
       </c>
       <c r="H76" t="n">
         <v>26</v>
       </c>
       <c r="I76" t="n">
-        <v>20.96106</v>
+        <v>20.54681</v>
       </c>
       <c r="J76" t="n">
-        <v>18.784424</v>
+        <v>18.618724</v>
       </c>
       <c r="K76" t="n">
         <v>26</v>
       </c>
       <c r="L76" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M76" t="n">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="N76" t="n">
         <v>1</v>
@@ -4426,31 +4426,31 @@
         <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.913043</v>
+        <v>-0.914894</v>
       </c>
       <c r="G77" t="n">
-        <v>0.051339</v>
+        <v>0.048604</v>
       </c>
       <c r="H77" t="n">
         <v>36</v>
       </c>
       <c r="I77" t="n">
-        <v>23.080783</v>
+        <v>22.980432</v>
       </c>
       <c r="J77" t="n">
-        <v>23.632313</v>
+        <v>23.592173</v>
       </c>
       <c r="K77" t="n">
         <v>36</v>
       </c>
       <c r="L77" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M77" t="n">
-        <v>896</v>
+        <v>967</v>
       </c>
       <c r="N77" t="n">
         <v>1</v>
@@ -4475,34 +4475,34 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
         <v>24</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.777778</v>
+        <v>-0.714286</v>
       </c>
       <c r="G78" t="n">
-        <v>0.058442</v>
+        <v>0.053232</v>
       </c>
       <c r="H78" t="n">
         <v>22</v>
       </c>
       <c r="I78" t="n">
-        <v>20.345141</v>
+        <v>20.072661</v>
       </c>
       <c r="J78" t="n">
-        <v>16.938056</v>
+        <v>16.829064</v>
       </c>
       <c r="K78" t="n">
         <v>22</v>
       </c>
       <c r="L78" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M78" t="n">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="N78" t="n">
         <v>1</v>
@@ -4527,34 +4527,34 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E79" t="n">
         <v>38</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.652174</v>
+        <v>-0.52</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08318300000000001</v>
+        <v>0.078864</v>
       </c>
       <c r="H79" t="n">
         <v>18</v>
       </c>
       <c r="I79" t="n">
-        <v>20.484581</v>
+        <v>20.264317</v>
       </c>
       <c r="J79" t="n">
-        <v>15.393832</v>
+        <v>15.305727</v>
       </c>
       <c r="K79" t="n">
         <v>18</v>
       </c>
       <c r="L79" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M79" t="n">
-        <v>553</v>
+        <v>634</v>
       </c>
       <c r="N79" t="n">
         <v>1</v>
@@ -4579,34 +4579,34 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E80" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.314286</v>
+        <v>-0.142857</v>
       </c>
       <c r="G80" t="n">
-        <v>0.069034</v>
+        <v>0.071066</v>
       </c>
       <c r="H80" t="n">
         <v>32</v>
       </c>
       <c r="I80" t="n">
-        <v>22.804054</v>
+        <v>22.635135</v>
       </c>
       <c r="J80" t="n">
-        <v>21.921622</v>
+        <v>21.854054</v>
       </c>
       <c r="K80" t="n">
         <v>32</v>
       </c>
       <c r="L80" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M80" t="n">
-        <v>507</v>
+        <v>591</v>
       </c>
       <c r="N80" t="n">
         <v>1</v>
@@ -4631,34 +4631,34 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E81" t="n">
         <v>34</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.581395</v>
+        <v>-0.478261</v>
       </c>
       <c r="G81" t="n">
-        <v>0.06196</v>
+        <v>0.062246</v>
       </c>
       <c r="H81" t="n">
         <v>26</v>
       </c>
       <c r="I81" t="n">
-        <v>23.066486</v>
+        <v>22.795115</v>
       </c>
       <c r="J81" t="n">
-        <v>19.626594</v>
+        <v>19.518046</v>
       </c>
       <c r="K81" t="n">
         <v>26</v>
       </c>
       <c r="L81" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M81" t="n">
-        <v>694</v>
+        <v>739</v>
       </c>
       <c r="N81" t="n">
         <v>1</v>
@@ -4683,16 +4683,16 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>0.333333</v>
       </c>
       <c r="G82" t="n">
-        <v>0.025</v>
+        <v>0.03125</v>
       </c>
       <c r="H82" t="n">
         <v>22</v>
@@ -4710,7 +4710,7 @@
         <v>39</v>
       </c>
       <c r="M82" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="N82" t="n">
         <v>1</v>
@@ -4735,34 +4735,34 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E83" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.285714</v>
+        <v>-0.244444</v>
       </c>
       <c r="G83" t="n">
-        <v>0.076782</v>
+        <v>0.075125</v>
       </c>
       <c r="H83" t="n">
         <v>21</v>
       </c>
       <c r="I83" t="n">
-        <v>18.56</v>
+        <v>18.16</v>
       </c>
       <c r="J83" t="n">
-        <v>15.824</v>
+        <v>15.664</v>
       </c>
       <c r="K83" t="n">
         <v>21</v>
       </c>
       <c r="L83" t="n">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M83" t="n">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="N83" t="n">
         <v>1</v>
@@ -4787,16 +4787,16 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
         <v>20</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.666667</v>
+        <v>-0.538462</v>
       </c>
       <c r="G84" t="n">
-        <v>0.075949</v>
+        <v>0.074499</v>
       </c>
       <c r="H84" t="n">
         <v>21</v>
@@ -4814,7 +4814,7 @@
         <v>143</v>
       </c>
       <c r="M84" t="n">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="N84" t="n">
         <v>1</v>
@@ -4842,13 +4842,13 @@
         <v>9</v>
       </c>
       <c r="E85" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.660377</v>
+        <v>-0.666667</v>
       </c>
       <c r="G85" t="n">
-        <v>0.092657</v>
+        <v>0.086538</v>
       </c>
       <c r="H85" t="n">
         <v>26</v>
@@ -4866,7 +4866,7 @@
         <v>293</v>
       </c>
       <c r="M85" t="n">
-        <v>572</v>
+        <v>624</v>
       </c>
       <c r="N85" t="n">
         <v>1</v>
@@ -4891,34 +4891,34 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
         <v>25</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8518520000000001</v>
+        <v>-0.515151</v>
       </c>
       <c r="G86" t="n">
-        <v>0.060948</v>
+        <v>0.063584</v>
       </c>
       <c r="H86" t="n">
         <v>31</v>
       </c>
       <c r="I86" t="n">
-        <v>18.934426</v>
+        <v>18.770492</v>
       </c>
       <c r="J86" t="n">
-        <v>19.97377</v>
+        <v>19.908197</v>
       </c>
       <c r="K86" t="n">
         <v>31</v>
       </c>
       <c r="L86" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M86" t="n">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="N86" t="n">
         <v>1</v>
@@ -4952,25 +4952,25 @@
         <v>0.333333</v>
       </c>
       <c r="G87" t="n">
-        <v>0.026906</v>
+        <v>0.025105</v>
       </c>
       <c r="H87" t="n">
         <v>37</v>
       </c>
       <c r="I87" t="n">
-        <v>28.85906</v>
+        <v>28.635347</v>
       </c>
       <c r="J87" t="n">
-        <v>26.343624</v>
+        <v>26.254139</v>
       </c>
       <c r="K87" t="n">
         <v>37</v>
       </c>
       <c r="L87" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M87" t="n">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="N87" t="n">
         <v>1</v>
@@ -4995,34 +4995,34 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5</v>
+        <v>0.454545</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02807</v>
+        <v>0.033233</v>
       </c>
       <c r="H88" t="n">
         <v>22</v>
       </c>
       <c r="I88" t="n">
-        <v>16.618911</v>
+        <v>16.475645</v>
       </c>
       <c r="J88" t="n">
-        <v>15.447564</v>
+        <v>15.390258</v>
       </c>
       <c r="K88" t="n">
         <v>22</v>
       </c>
       <c r="L88" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M88" t="n">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="N88" t="n">
         <v>1</v>
@@ -5047,34 +5047,34 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
         <v>38</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9</v>
+        <v>-0.8536589999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07692300000000001</v>
+        <v>0.072183</v>
       </c>
       <c r="H89" t="n">
         <v>39</v>
       </c>
       <c r="I89" t="n">
-        <v>23.475355</v>
+        <v>23.224728</v>
       </c>
       <c r="J89" t="n">
-        <v>24.990142</v>
+        <v>24.889891</v>
       </c>
       <c r="K89" t="n">
         <v>39</v>
       </c>
       <c r="L89" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M89" t="n">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="N89" t="n">
         <v>1</v>
@@ -5099,34 +5099,34 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.25</v>
+        <v>-0.111111</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05948</v>
+        <v>0.053892</v>
       </c>
       <c r="H90" t="n">
         <v>26</v>
       </c>
       <c r="I90" t="n">
-        <v>12.285012</v>
+        <v>12.039312</v>
       </c>
       <c r="J90" t="n">
-        <v>15.314005</v>
+        <v>15.215725</v>
       </c>
       <c r="K90" t="n">
         <v>26</v>
       </c>
       <c r="L90" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M90" t="n">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="N90" t="n">
         <v>1</v>
@@ -5154,31 +5154,31 @@
         <v>3</v>
       </c>
       <c r="E91" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.823529</v>
+        <v>-0.8285709999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>0.061483</v>
+        <v>0.058824</v>
       </c>
       <c r="H91" t="n">
         <v>25</v>
       </c>
       <c r="I91" t="n">
-        <v>21.422594</v>
+        <v>21.171548</v>
       </c>
       <c r="J91" t="n">
-        <v>18.569038</v>
+        <v>18.468619</v>
       </c>
       <c r="K91" t="n">
         <v>25</v>
       </c>
       <c r="L91" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M91" t="n">
-        <v>553</v>
+        <v>595</v>
       </c>
       <c r="N91" t="n">
         <v>1</v>
@@ -5203,34 +5203,34 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E92" t="n">
         <v>34</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.658537</v>
+        <v>-0.511111</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08401599999999999</v>
+        <v>0.07964599999999999</v>
       </c>
       <c r="H92" t="n">
         <v>22</v>
       </c>
       <c r="I92" t="n">
-        <v>22.33677</v>
+        <v>21.735395</v>
       </c>
       <c r="J92" t="n">
-        <v>17.734708</v>
+        <v>17.494158</v>
       </c>
       <c r="K92" t="n">
         <v>22</v>
       </c>
       <c r="L92" t="n">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M92" t="n">
-        <v>488</v>
+        <v>565</v>
       </c>
       <c r="N92" t="n">
         <v>1</v>
@@ -5255,34 +5255,34 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E93" t="n">
         <v>28</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.473684</v>
+        <v>-0.333333</v>
       </c>
       <c r="G93" t="n">
-        <v>0.072243</v>
+        <v>0.0746</v>
       </c>
       <c r="H93" t="n">
         <v>22</v>
       </c>
       <c r="I93" t="n">
-        <v>23.569599</v>
+        <v>23.313407</v>
       </c>
       <c r="J93" t="n">
-        <v>18.22784</v>
+        <v>18.125363</v>
       </c>
       <c r="K93" t="n">
         <v>22</v>
       </c>
       <c r="L93" t="n">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M93" t="n">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="N93" t="n">
         <v>1</v>
@@ -5316,25 +5316,25 @@
         <v>-0.5918369999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>0.079288</v>
+        <v>0.06891700000000001</v>
       </c>
       <c r="H94" t="n">
         <v>26</v>
       </c>
       <c r="I94" t="n">
-        <v>21.132597</v>
+        <v>21.063536</v>
       </c>
       <c r="J94" t="n">
-        <v>18.853039</v>
+        <v>18.825414</v>
       </c>
       <c r="K94" t="n">
         <v>26</v>
       </c>
       <c r="L94" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M94" t="n">
-        <v>618</v>
+        <v>711</v>
       </c>
       <c r="N94" t="n">
         <v>1</v>
@@ -5359,34 +5359,34 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E95" t="n">
         <v>52</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.386667</v>
+        <v>-0.350649</v>
       </c>
       <c r="G95" t="n">
-        <v>0.099206</v>
+        <v>0.094247</v>
       </c>
       <c r="H95" t="n">
         <v>25</v>
       </c>
       <c r="I95" t="n">
-        <v>19.931074</v>
+        <v>19.643883</v>
       </c>
       <c r="J95" t="n">
-        <v>17.97243</v>
+        <v>17.857553</v>
       </c>
       <c r="K95" t="n">
         <v>25</v>
       </c>
       <c r="L95" t="n">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M95" t="n">
-        <v>756</v>
+        <v>817</v>
       </c>
       <c r="N95" t="n">
         <v>1</v>
@@ -5411,34 +5411,34 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E96" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.482759</v>
+        <v>-0.466667</v>
       </c>
       <c r="G96" t="n">
-        <v>0.062299</v>
+        <v>0.059289</v>
       </c>
       <c r="H96" t="n">
         <v>28</v>
       </c>
       <c r="I96" t="n">
-        <v>22.947577</v>
+        <v>22.650841</v>
       </c>
       <c r="J96" t="n">
-        <v>20.379031</v>
+        <v>20.260336</v>
       </c>
       <c r="K96" t="n">
         <v>28</v>
       </c>
       <c r="L96" t="n">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M96" t="n">
-        <v>931</v>
+        <v>1012</v>
       </c>
       <c r="N96" t="n">
         <v>1</v>
@@ -5472,7 +5472,7 @@
         <v>-0.44</v>
       </c>
       <c r="G97" t="n">
-        <v>0.070423</v>
+        <v>0.056818</v>
       </c>
       <c r="H97" t="n">
         <v>77</v>
@@ -5490,7 +5490,7 @@
         <v>108</v>
       </c>
       <c r="M97" t="n">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="N97" t="n">
         <v>1</v>
@@ -5515,34 +5515,34 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E98" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.682927</v>
+        <v>-0.573034</v>
       </c>
       <c r="G98" t="n">
-        <v>0.085595</v>
+        <v>0.08599</v>
       </c>
       <c r="H98" t="n">
         <v>31</v>
       </c>
       <c r="I98" t="n">
-        <v>22.432932</v>
+        <v>22.201665</v>
       </c>
       <c r="J98" t="n">
-        <v>21.373173</v>
+        <v>21.280666</v>
       </c>
       <c r="K98" t="n">
         <v>31</v>
       </c>
       <c r="L98" t="n">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M98" t="n">
-        <v>958</v>
+        <v>1035</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
@@ -5567,34 +5567,34 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.523809</v>
+        <v>-0.28</v>
       </c>
       <c r="G99" t="n">
-        <v>0.038961</v>
+        <v>0.040193</v>
       </c>
       <c r="H99" t="n">
         <v>20</v>
       </c>
       <c r="I99" t="n">
-        <v>17.168886</v>
+        <v>16.888577</v>
       </c>
       <c r="J99" t="n">
-        <v>14.867554</v>
+        <v>14.755431</v>
       </c>
       <c r="K99" t="n">
         <v>20</v>
       </c>
       <c r="L99" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M99" t="n">
-        <v>539</v>
+        <v>622</v>
       </c>
       <c r="N99" t="n">
         <v>1</v>
@@ -5628,7 +5628,7 @@
         <v>-0.529412</v>
       </c>
       <c r="G100" t="n">
-        <v>0.093407</v>
+        <v>0.089005</v>
       </c>
       <c r="H100" t="n">
         <v>26</v>
@@ -5646,7 +5646,7 @@
         <v>96</v>
       </c>
       <c r="M100" t="n">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="N100" t="n">
         <v>1</v>
@@ -5671,34 +5671,34 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E101" t="n">
         <v>87</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.722772</v>
+        <v>-0.68932</v>
       </c>
       <c r="G101" t="n">
-        <v>0.08423700000000001</v>
+        <v>0.08181099999999999</v>
       </c>
       <c r="H101" t="n">
         <v>28</v>
       </c>
       <c r="I101" t="n">
-        <v>21.994992</v>
+        <v>21.828047</v>
       </c>
       <c r="J101" t="n">
-        <v>19.997997</v>
+        <v>19.931219</v>
       </c>
       <c r="K101" t="n">
         <v>28</v>
       </c>
       <c r="L101" t="n">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M101" t="n">
-        <v>1199</v>
+        <v>1259</v>
       </c>
       <c r="N101" t="n">
         <v>1</v>
@@ -5723,34 +5723,34 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E102" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.666667</v>
+        <v>-0.384615</v>
       </c>
       <c r="G102" t="n">
-        <v>0.069079</v>
+        <v>0.06998699999999999</v>
       </c>
       <c r="H102" t="n">
         <v>27</v>
       </c>
       <c r="I102" t="n">
-        <v>15.659182</v>
+        <v>15.486471</v>
       </c>
       <c r="J102" t="n">
-        <v>17.063673</v>
+        <v>16.994588</v>
       </c>
       <c r="K102" t="n">
         <v>27</v>
       </c>
       <c r="L102" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M102" t="n">
-        <v>608</v>
+        <v>743</v>
       </c>
       <c r="N102" t="n">
         <v>1</v>
@@ -5775,34 +5775,34 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E103" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.746032</v>
+        <v>-0.652174</v>
       </c>
       <c r="G103" t="n">
-        <v>0.07797</v>
+        <v>0.074919</v>
       </c>
       <c r="H103" t="n">
         <v>24</v>
       </c>
       <c r="I103" t="n">
-        <v>21.212121</v>
+        <v>20.757576</v>
       </c>
       <c r="J103" t="n">
-        <v>18.084848</v>
+        <v>17.90303</v>
       </c>
       <c r="K103" t="n">
         <v>24</v>
       </c>
       <c r="L103" t="n">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="M103" t="n">
-        <v>808</v>
+        <v>921</v>
       </c>
       <c r="N103" t="n">
         <v>1</v>
@@ -5827,34 +5827,34 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E104" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.614035</v>
+        <v>-0.5</v>
       </c>
       <c r="G104" t="n">
-        <v>0.065442</v>
+        <v>0.064193</v>
       </c>
       <c r="H104" t="n">
         <v>27</v>
       </c>
       <c r="I104" t="n">
-        <v>22.106825</v>
+        <v>21.859545</v>
       </c>
       <c r="J104" t="n">
-        <v>19.64273</v>
+        <v>19.543818</v>
       </c>
       <c r="K104" t="n">
         <v>27</v>
       </c>
       <c r="L104" t="n">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M104" t="n">
-        <v>871</v>
+        <v>997</v>
       </c>
       <c r="N104" t="n">
         <v>1</v>
@@ -5879,34 +5879,34 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E105" t="n">
         <v>61</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.487805</v>
+        <v>-0.418605</v>
       </c>
       <c r="G105" t="n">
-        <v>0.084275</v>
+        <v>0.080374</v>
       </c>
       <c r="H105" t="n">
         <v>34</v>
       </c>
       <c r="I105" t="n">
-        <v>25.491991</v>
+        <v>25.217391</v>
       </c>
       <c r="J105" t="n">
-        <v>23.796796</v>
+        <v>23.686956</v>
       </c>
       <c r="K105" t="n">
         <v>34</v>
       </c>
       <c r="L105" t="n">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M105" t="n">
-        <v>973</v>
+        <v>1070</v>
       </c>
       <c r="N105" t="n">
         <v>1</v>
@@ -5931,34 +5931,34 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E106" t="n">
         <v>22</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.073171</v>
+        <v>0.022222</v>
       </c>
       <c r="G106" t="n">
-        <v>0.048292</v>
+        <v>0.047821</v>
       </c>
       <c r="H106" t="n">
         <v>32</v>
       </c>
       <c r="I106" t="n">
-        <v>23.013962</v>
+        <v>22.725084</v>
       </c>
       <c r="J106" t="n">
-        <v>22.005585</v>
+        <v>21.890034</v>
       </c>
       <c r="K106" t="n">
         <v>32</v>
       </c>
       <c r="L106" t="n">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M106" t="n">
-        <v>849</v>
+        <v>941</v>
       </c>
       <c r="N106" t="n">
         <v>1</v>
@@ -5983,34 +5983,34 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E107" t="n">
         <v>25</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.785714</v>
+        <v>-0.666667</v>
       </c>
       <c r="G107" t="n">
-        <v>0.071247</v>
+        <v>0.06818200000000001</v>
       </c>
       <c r="H107" t="n">
         <v>28</v>
       </c>
       <c r="I107" t="n">
-        <v>21.26556</v>
+        <v>20.850622</v>
       </c>
       <c r="J107" t="n">
-        <v>19.706224</v>
+        <v>19.540249</v>
       </c>
       <c r="K107" t="n">
         <v>28</v>
       </c>
       <c r="L107" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M107" t="n">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="N107" t="n">
         <v>1</v>
@@ -6038,31 +6038,31 @@
         <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.825</v>
+        <v>-0.82716</v>
       </c>
       <c r="G108" t="n">
-        <v>0.100629</v>
+        <v>0.093859</v>
       </c>
       <c r="H108" t="n">
         <v>28</v>
       </c>
       <c r="I108" t="n">
-        <v>23.174779</v>
+        <v>22.89823</v>
       </c>
       <c r="J108" t="n">
-        <v>20.469912</v>
+        <v>20.359292</v>
       </c>
       <c r="K108" t="n">
         <v>28</v>
       </c>
       <c r="L108" t="n">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M108" t="n">
-        <v>795</v>
+        <v>863</v>
       </c>
       <c r="N108" t="n">
         <v>1</v>
@@ -6087,34 +6087,34 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E109" t="n">
         <v>37</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.541667</v>
+        <v>-0.510204</v>
       </c>
       <c r="G109" t="n">
-        <v>0.102564</v>
+        <v>0.097416</v>
       </c>
       <c r="H109" t="n">
         <v>25</v>
       </c>
       <c r="I109" t="n">
-        <v>22.104332</v>
+        <v>21.750663</v>
       </c>
       <c r="J109" t="n">
-        <v>18.841733</v>
+        <v>18.700265</v>
       </c>
       <c r="K109" t="n">
         <v>25</v>
       </c>
       <c r="L109" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M109" t="n">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="N109" t="n">
         <v>1</v>
@@ -6148,25 +6148,25 @@
         <v>-1</v>
       </c>
       <c r="G110" t="n">
-        <v>0.027778</v>
+        <v>0.025707</v>
       </c>
       <c r="H110" t="n">
         <v>27</v>
       </c>
       <c r="I110" t="n">
-        <v>23.255814</v>
+        <v>22.997416</v>
       </c>
       <c r="J110" t="n">
-        <v>20.102326</v>
+        <v>19.998966</v>
       </c>
       <c r="K110" t="n">
         <v>27</v>
       </c>
       <c r="L110" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M110" t="n">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="N110" t="n">
         <v>1</v>
@@ -6191,34 +6191,34 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E111" t="n">
         <v>33</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.736842</v>
+        <v>-0.692308</v>
       </c>
       <c r="G111" t="n">
-        <v>0.038934</v>
+        <v>0.036792</v>
       </c>
       <c r="H111" t="n">
         <v>39</v>
       </c>
       <c r="I111" t="n">
-        <v>21.55309</v>
+        <v>21.024828</v>
       </c>
       <c r="J111" t="n">
-        <v>24.221236</v>
+        <v>24.009931</v>
       </c>
       <c r="K111" t="n">
         <v>39</v>
       </c>
       <c r="L111" t="n">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="M111" t="n">
-        <v>976</v>
+        <v>1060</v>
       </c>
       <c r="N111" t="n">
         <v>1</v>
@@ -6243,34 +6243,34 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E112" t="n">
         <v>27</v>
       </c>
       <c r="F112" t="n">
-        <v>0.068966</v>
+        <v>0.142857</v>
       </c>
       <c r="G112" t="n">
-        <v>0.063596</v>
+        <v>0.06422</v>
       </c>
       <c r="H112" t="n">
         <v>28</v>
       </c>
       <c r="I112" t="n">
-        <v>23.746835</v>
+        <v>23.139241</v>
       </c>
       <c r="J112" t="n">
-        <v>20.698734</v>
+        <v>20.455696</v>
       </c>
       <c r="K112" t="n">
         <v>28</v>
       </c>
       <c r="L112" t="n">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="M112" t="n">
-        <v>912</v>
+        <v>981</v>
       </c>
       <c r="N112" t="n">
         <v>1</v>
@@ -6295,34 +6295,34 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E113" t="n">
         <v>21</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.448276</v>
+        <v>-0.4</v>
       </c>
       <c r="G113" t="n">
-        <v>0.046326</v>
+        <v>0.041436</v>
       </c>
       <c r="H113" t="n">
         <v>27</v>
       </c>
       <c r="I113" t="n">
-        <v>22.375864</v>
+        <v>21.747329</v>
       </c>
       <c r="J113" t="n">
-        <v>19.750346</v>
+        <v>19.498932</v>
       </c>
       <c r="K113" t="n">
         <v>27</v>
       </c>
       <c r="L113" t="n">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M113" t="n">
-        <v>626</v>
+        <v>724</v>
       </c>
       <c r="N113" t="n">
         <v>1</v>
@@ -6350,31 +6350,31 @@
         <v>22</v>
       </c>
       <c r="E114" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.06383</v>
+        <v>-0.102041</v>
       </c>
       <c r="G114" t="n">
-        <v>0.084991</v>
+        <v>0.080592</v>
       </c>
       <c r="H114" t="n">
         <v>28</v>
       </c>
       <c r="I114" t="n">
-        <v>30.511464</v>
+        <v>30.15873</v>
       </c>
       <c r="J114" t="n">
-        <v>23.404586</v>
+        <v>23.263492</v>
       </c>
       <c r="K114" t="n">
         <v>28</v>
       </c>
       <c r="L114" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M114" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="N114" t="n">
         <v>1</v>
@@ -6399,34 +6399,34 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E115" t="n">
         <v>10</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.666667</v>
+        <v>-0.538461</v>
       </c>
       <c r="G115" t="n">
-        <v>0.056872</v>
+        <v>0.059361</v>
       </c>
       <c r="H115" t="n">
         <v>31</v>
       </c>
       <c r="I115" t="n">
-        <v>27.853881</v>
+        <v>27.16895</v>
       </c>
       <c r="J115" t="n">
-        <v>23.541552</v>
+        <v>23.26758</v>
       </c>
       <c r="K115" t="n">
         <v>31</v>
       </c>
       <c r="L115" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M115" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N115" t="n">
         <v>1</v>
@@ -6451,34 +6451,34 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.999999</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>0.007042</v>
+        <v>0.017143</v>
       </c>
       <c r="H116" t="n">
         <v>24</v>
       </c>
       <c r="I116" t="n">
-        <v>16.839378</v>
+        <v>16.580311</v>
       </c>
       <c r="J116" t="n">
-        <v>16.335751</v>
+        <v>16.232124</v>
       </c>
       <c r="K116" t="n">
         <v>24</v>
       </c>
       <c r="L116" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M116" t="n">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="N116" t="n">
         <v>1</v>
@@ -6512,7 +6512,7 @@
         <v>-1</v>
       </c>
       <c r="G117" t="n">
-        <v>0.089172</v>
+        <v>0.082353</v>
       </c>
       <c r="H117" t="n">
         <v>22</v>
@@ -6530,7 +6530,7 @@
         <v>84</v>
       </c>
       <c r="M117" t="n">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="N117" t="n">
         <v>1</v>
@@ -6564,25 +6564,25 @@
         <v>-1</v>
       </c>
       <c r="G118" t="n">
-        <v>0.058252</v>
+        <v>0.04918</v>
       </c>
       <c r="H118" t="n">
         <v>35</v>
       </c>
       <c r="I118" t="n">
-        <v>17.314488</v>
+        <v>16.961131</v>
       </c>
       <c r="J118" t="n">
-        <v>20.925795</v>
+        <v>20.784452</v>
       </c>
       <c r="K118" t="n">
         <v>35</v>
       </c>
       <c r="L118" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M118" t="n">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="N118" t="n">
         <v>1</v>
@@ -6616,25 +6616,25 @@
         <v>-0.6</v>
       </c>
       <c r="G119" t="n">
-        <v>0.133929</v>
+        <v>0.114504</v>
       </c>
       <c r="H119" t="n">
         <v>21</v>
       </c>
       <c r="I119" t="n">
-        <v>22.558923</v>
+        <v>22.222222</v>
       </c>
       <c r="J119" t="n">
-        <v>17.423569</v>
+        <v>17.288889</v>
       </c>
       <c r="K119" t="n">
         <v>21</v>
       </c>
       <c r="L119" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M119" t="n">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="N119" t="n">
         <v>1</v>
@@ -6659,34 +6659,34 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
       </c>
       <c r="F120" t="n">
-        <v>0.333333</v>
+        <v>0.444444</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08955200000000001</v>
+        <v>0.09756099999999999</v>
       </c>
       <c r="H120" t="n">
         <v>22</v>
       </c>
       <c r="I120" t="n">
-        <v>26.628895</v>
+        <v>26.062323</v>
       </c>
       <c r="J120" t="n">
-        <v>19.451558</v>
+        <v>19.224929</v>
       </c>
       <c r="K120" t="n">
         <v>22</v>
       </c>
       <c r="L120" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M120" t="n">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="N120" t="n">
         <v>1</v>
@@ -6711,34 +6711,34 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E121" t="n">
         <v>52</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.925926</v>
+        <v>-0.824561</v>
       </c>
       <c r="G121" t="n">
-        <v>0.10609</v>
+        <v>0.100176</v>
       </c>
       <c r="H121" t="n">
         <v>28</v>
       </c>
       <c r="I121" t="n">
-        <v>22.357019</v>
+        <v>21.750433</v>
       </c>
       <c r="J121" t="n">
-        <v>20.142808</v>
+        <v>19.900173</v>
       </c>
       <c r="K121" t="n">
         <v>28</v>
       </c>
       <c r="L121" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M121" t="n">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="N121" t="n">
         <v>1</v>
@@ -6766,31 +6766,31 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.945946</v>
+        <v>-0.948718</v>
       </c>
       <c r="G122" t="n">
-        <v>0.083146</v>
+        <v>0.075875</v>
       </c>
       <c r="H122" t="n">
         <v>34</v>
       </c>
       <c r="I122" t="n">
-        <v>18.165468</v>
+        <v>17.985612</v>
       </c>
       <c r="J122" t="n">
-        <v>20.866187</v>
+        <v>20.794245</v>
       </c>
       <c r="K122" t="n">
         <v>34</v>
       </c>
       <c r="L122" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M122" t="n">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="N122" t="n">
         <v>1</v>
@@ -6815,34 +6815,34 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E123" t="n">
         <v>50</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.666667</v>
+        <v>-0.612903</v>
       </c>
       <c r="G123" t="n">
-        <v>0.067416</v>
+        <v>0.06333</v>
       </c>
       <c r="H123" t="n">
         <v>28</v>
       </c>
       <c r="I123" t="n">
-        <v>24.888669</v>
+        <v>24.591786</v>
       </c>
       <c r="J123" t="n">
-        <v>21.155468</v>
+        <v>21.036714</v>
       </c>
       <c r="K123" t="n">
         <v>28</v>
       </c>
       <c r="L123" t="n">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M123" t="n">
-        <v>890</v>
+        <v>979</v>
       </c>
       <c r="N123" t="n">
         <v>1</v>
@@ -6876,25 +6876,25 @@
         <v>-0.384615</v>
       </c>
       <c r="G124" t="n">
-        <v>0.041401</v>
+        <v>0.03869</v>
       </c>
       <c r="H124" t="n">
         <v>20</v>
       </c>
       <c r="I124" t="n">
-        <v>20.669578</v>
+        <v>20.087336</v>
       </c>
       <c r="J124" t="n">
-        <v>16.267831</v>
+        <v>16.034934</v>
       </c>
       <c r="K124" t="n">
         <v>20</v>
       </c>
       <c r="L124" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M124" t="n">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="N124" t="n">
         <v>1</v>
@@ -6919,34 +6919,34 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E125" t="n">
         <v>18</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.285714</v>
+        <v>-0.16129</v>
       </c>
       <c r="G125" t="n">
-        <v>0.048276</v>
+        <v>0.051071</v>
       </c>
       <c r="H125" t="n">
         <v>37</v>
       </c>
       <c r="I125" t="n">
-        <v>25.219473</v>
+        <v>25.139665</v>
       </c>
       <c r="J125" t="n">
-        <v>24.887789</v>
+        <v>24.855866</v>
       </c>
       <c r="K125" t="n">
         <v>37</v>
       </c>
       <c r="L125" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M125" t="n">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="N125" t="n">
         <v>1</v>
@@ -6980,25 +6980,25 @@
         <v>-0.375</v>
       </c>
       <c r="G126" t="n">
-        <v>0.035088</v>
+        <v>0.031373</v>
       </c>
       <c r="H126" t="n">
         <v>28</v>
       </c>
       <c r="I126" t="n">
-        <v>21.027132</v>
+        <v>20.736434</v>
       </c>
       <c r="J126" t="n">
-        <v>19.610853</v>
+        <v>19.494574</v>
       </c>
       <c r="K126" t="n">
         <v>28</v>
       </c>
       <c r="L126" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M126" t="n">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="N126" t="n">
         <v>1</v>
@@ -7023,34 +7023,34 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E127" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.36</v>
+        <v>-0.285714</v>
       </c>
       <c r="G127" t="n">
-        <v>0.053996</v>
+        <v>0.055446</v>
       </c>
       <c r="H127" t="n">
         <v>21</v>
       </c>
       <c r="I127" t="n">
-        <v>24.337586</v>
+        <v>23.748773</v>
       </c>
       <c r="J127" t="n">
-        <v>18.135034</v>
+        <v>17.899509</v>
       </c>
       <c r="K127" t="n">
         <v>21</v>
       </c>
       <c r="L127" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M127" t="n">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="N127" t="n">
         <v>1</v>
@@ -7075,34 +7075,34 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
       </c>
       <c r="F128" t="n">
-        <v>0.307692</v>
+        <v>0.4</v>
       </c>
       <c r="G128" t="n">
-        <v>0.032581</v>
+        <v>0.034325</v>
       </c>
       <c r="H128" t="n">
         <v>31</v>
       </c>
       <c r="I128" t="n">
-        <v>24.065685</v>
+        <v>23.386183</v>
       </c>
       <c r="J128" t="n">
-        <v>22.026274</v>
+        <v>21.754473</v>
       </c>
       <c r="K128" t="n">
         <v>31</v>
       </c>
       <c r="L128" t="n">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="M128" t="n">
-        <v>798</v>
+        <v>874</v>
       </c>
       <c r="N128" t="n">
         <v>1</v>
@@ -7127,34 +7127,34 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E129" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.68</v>
+        <v>-0.563636</v>
       </c>
       <c r="G129" t="n">
-        <v>0.07874</v>
+        <v>0.08209</v>
       </c>
       <c r="H129" t="n">
         <v>20</v>
       </c>
       <c r="I129" t="n">
-        <v>26.687117</v>
+        <v>26.226994</v>
       </c>
       <c r="J129" t="n">
-        <v>18.674847</v>
+        <v>18.490798</v>
       </c>
       <c r="K129" t="n">
         <v>20</v>
       </c>
       <c r="L129" t="n">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M129" t="n">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="N129" t="n">
         <v>1</v>
@@ -7179,34 +7179,34 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
       </c>
       <c r="F130" t="n">
-        <v>0.473684</v>
+        <v>0.523809</v>
       </c>
       <c r="G130" t="n">
-        <v>0.049608</v>
+        <v>0.049881</v>
       </c>
       <c r="H130" t="n">
         <v>28</v>
       </c>
       <c r="I130" t="n">
-        <v>30.375</v>
+        <v>29.75</v>
       </c>
       <c r="J130" t="n">
-        <v>23.35</v>
+        <v>23.1</v>
       </c>
       <c r="K130" t="n">
         <v>28</v>
       </c>
       <c r="L130" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M130" t="n">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="N130" t="n">
         <v>1</v>
@@ -7231,34 +7231,34 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E131" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.5</v>
+        <v>-0.442623</v>
       </c>
       <c r="G131" t="n">
-        <v>0.104283</v>
+        <v>0.102867</v>
       </c>
       <c r="H131" t="n">
         <v>18</v>
       </c>
       <c r="I131" t="n">
-        <v>21.791559</v>
+        <v>21.447028</v>
       </c>
       <c r="J131" t="n">
-        <v>15.916624</v>
+        <v>15.778811</v>
       </c>
       <c r="K131" t="n">
         <v>18</v>
       </c>
       <c r="L131" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M131" t="n">
-        <v>537</v>
+        <v>593</v>
       </c>
       <c r="N131" t="n">
         <v>1</v>
@@ -7283,34 +7283,34 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E132" t="n">
         <v>37</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.510204</v>
+        <v>-0.321429</v>
       </c>
       <c r="G132" t="n">
-        <v>0.06274</v>
+        <v>0.06596</v>
       </c>
       <c r="H132" t="n">
         <v>31</v>
       </c>
       <c r="I132" t="n">
-        <v>22.688564</v>
+        <v>22.445255</v>
       </c>
       <c r="J132" t="n">
-        <v>21.475426</v>
+        <v>21.378102</v>
       </c>
       <c r="K132" t="n">
         <v>31</v>
       </c>
       <c r="L132" t="n">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M132" t="n">
-        <v>781</v>
+        <v>849</v>
       </c>
       <c r="N132" t="n">
         <v>1</v>
@@ -7335,34 +7335,34 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
       </c>
       <c r="F133" t="n">
-        <v>0.542857</v>
+        <v>0.555556</v>
       </c>
       <c r="G133" t="n">
-        <v>0.055821</v>
+        <v>0.052326</v>
       </c>
       <c r="H133" t="n">
         <v>23</v>
       </c>
       <c r="I133" t="n">
-        <v>27.51364</v>
+        <v>27.357755</v>
       </c>
       <c r="J133" t="n">
-        <v>20.205456</v>
+        <v>20.143102</v>
       </c>
       <c r="K133" t="n">
         <v>23</v>
       </c>
       <c r="L133" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M133" t="n">
-        <v>627</v>
+        <v>688</v>
       </c>
       <c r="N133" t="n">
         <v>1</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E134" t="n">
         <v>30</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.395349</v>
+        <v>-0.333333</v>
       </c>
       <c r="G134" t="n">
-        <v>0.070608</v>
+        <v>0.069659</v>
       </c>
       <c r="H134" t="n">
         <v>24</v>
       </c>
       <c r="I134" t="n">
-        <v>28.676471</v>
+        <v>28.349673</v>
       </c>
       <c r="J134" t="n">
-        <v>21.070588</v>
+        <v>20.939869</v>
       </c>
       <c r="K134" t="n">
         <v>24</v>
       </c>
       <c r="L134" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M134" t="n">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="N134" t="n">
         <v>1</v>
@@ -7439,34 +7439,34 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E135" t="n">
         <v>25</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.219512</v>
+        <v>-0.190476</v>
       </c>
       <c r="G135" t="n">
-        <v>0.06288299999999999</v>
+        <v>0.058741</v>
       </c>
       <c r="H135" t="n">
         <v>25</v>
       </c>
       <c r="I135" t="n">
-        <v>21.478382</v>
+        <v>20.850767</v>
       </c>
       <c r="J135" t="n">
-        <v>18.591353</v>
+        <v>18.340307</v>
       </c>
       <c r="K135" t="n">
         <v>25</v>
       </c>
       <c r="L135" t="n">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M135" t="n">
-        <v>652</v>
+        <v>715</v>
       </c>
       <c r="N135" t="n">
         <v>1</v>
@@ -7491,34 +7491,34 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E136" t="n">
         <v>24</v>
       </c>
       <c r="F136" t="n">
-        <v>0.09433999999999999</v>
+        <v>0.172414</v>
       </c>
       <c r="G136" t="n">
-        <v>0.07681200000000001</v>
+        <v>0.076517</v>
       </c>
       <c r="H136" t="n">
         <v>19</v>
       </c>
       <c r="I136" t="n">
-        <v>28.040057</v>
+        <v>27.467811</v>
       </c>
       <c r="J136" t="n">
-        <v>18.816023</v>
+        <v>18.587124</v>
       </c>
       <c r="K136" t="n">
         <v>19</v>
       </c>
       <c r="L136" t="n">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M136" t="n">
-        <v>690</v>
+        <v>758</v>
       </c>
       <c r="N136" t="n">
         <v>1</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E137" t="n">
         <v>12</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.333333</v>
+        <v>-0.263158</v>
       </c>
       <c r="G137" t="n">
-        <v>0.040541</v>
+        <v>0.039501</v>
       </c>
       <c r="H137" t="n">
         <v>21</v>
       </c>
       <c r="I137" t="n">
-        <v>23.946785</v>
+        <v>23.614191</v>
       </c>
       <c r="J137" t="n">
-        <v>17.978714</v>
+        <v>17.845676</v>
       </c>
       <c r="K137" t="n">
         <v>21</v>
       </c>
       <c r="L137" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M137" t="n">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="N137" t="n">
         <v>1</v>
@@ -7595,34 +7595,34 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E138" t="n">
         <v>28</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.4</v>
+        <v>-0.217391</v>
       </c>
       <c r="G138" t="n">
-        <v>0.056417</v>
+        <v>0.059432</v>
       </c>
       <c r="H138" t="n">
         <v>32</v>
       </c>
       <c r="I138" t="n">
-        <v>23.938992</v>
+        <v>23.67374</v>
       </c>
       <c r="J138" t="n">
-        <v>22.375597</v>
+        <v>22.269496</v>
       </c>
       <c r="K138" t="n">
         <v>32</v>
       </c>
       <c r="L138" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M138" t="n">
-        <v>709</v>
+        <v>774</v>
       </c>
       <c r="N138" t="n">
         <v>1</v>
@@ -7647,34 +7647,34 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E139" t="n">
         <v>25</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.515151</v>
+        <v>-0.428571</v>
       </c>
       <c r="G139" t="n">
-        <v>0.084615</v>
+        <v>0.079365</v>
       </c>
       <c r="H139" t="n">
         <v>24</v>
       </c>
       <c r="I139" t="n">
-        <v>21.888889</v>
+        <v>21.333333</v>
       </c>
       <c r="J139" t="n">
-        <v>18.355556</v>
+        <v>18.133333</v>
       </c>
       <c r="K139" t="n">
         <v>24</v>
       </c>
       <c r="L139" t="n">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M139" t="n">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="N139" t="n">
         <v>1</v>
@@ -7699,34 +7699,34 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E140" t="n">
         <v>19</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.027027</v>
+        <v>0.05</v>
       </c>
       <c r="G140" t="n">
-        <v>0.046482</v>
+        <v>0.044199</v>
       </c>
       <c r="H140" t="n">
         <v>28</v>
       </c>
       <c r="I140" t="n">
-        <v>24.209932</v>
+        <v>24.097065</v>
       </c>
       <c r="J140" t="n">
-        <v>20.883973</v>
+        <v>20.838826</v>
       </c>
       <c r="K140" t="n">
         <v>28</v>
       </c>
       <c r="L140" t="n">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M140" t="n">
-        <v>796</v>
+        <v>905</v>
       </c>
       <c r="N140" t="n">
         <v>1</v>
@@ -7751,34 +7751,34 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E141" t="n">
         <v>6</v>
       </c>
       <c r="F141" t="n">
-        <v>0.636364</v>
+        <v>0.692308</v>
       </c>
       <c r="G141" t="n">
-        <v>0.046479</v>
+        <v>0.047736</v>
       </c>
       <c r="H141" t="n">
         <v>21</v>
       </c>
       <c r="I141" t="n">
-        <v>25.568862</v>
+        <v>25.508982</v>
       </c>
       <c r="J141" t="n">
-        <v>18.627545</v>
+        <v>18.603593</v>
       </c>
       <c r="K141" t="n">
         <v>21</v>
       </c>
       <c r="L141" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M141" t="n">
-        <v>710</v>
+        <v>817</v>
       </c>
       <c r="N141" t="n">
         <v>1</v>
@@ -7803,34 +7803,34 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E142" t="n">
         <v>14</v>
       </c>
       <c r="F142" t="n">
-        <v>0.377778</v>
+        <v>0.416667</v>
       </c>
       <c r="G142" t="n">
-        <v>0.094737</v>
+        <v>0.091082</v>
       </c>
       <c r="H142" t="n">
         <v>28</v>
       </c>
       <c r="I142" t="n">
-        <v>27.794872</v>
+        <v>27.384615</v>
       </c>
       <c r="J142" t="n">
-        <v>22.317949</v>
+        <v>22.153846</v>
       </c>
       <c r="K142" t="n">
         <v>28</v>
       </c>
       <c r="L142" t="n">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M142" t="n">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="N142" t="n">
         <v>1</v>
@@ -7855,34 +7855,34 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
       </c>
       <c r="F143" t="n">
-        <v>0.16129</v>
+        <v>0.297297</v>
       </c>
       <c r="G143" t="n">
-        <v>0.055062</v>
+        <v>0.055891</v>
       </c>
       <c r="H143" t="n">
         <v>34</v>
       </c>
       <c r="I143" t="n">
-        <v>25.037594</v>
+        <v>24.661654</v>
       </c>
       <c r="J143" t="n">
-        <v>23.615038</v>
+        <v>23.464662</v>
       </c>
       <c r="K143" t="n">
         <v>34</v>
       </c>
       <c r="L143" t="n">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M143" t="n">
-        <v>563</v>
+        <v>662</v>
       </c>
       <c r="N143" t="n">
         <v>1</v>
@@ -7907,34 +7907,34 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E144" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.290323</v>
+        <v>-0.277778</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06300799999999999</v>
+        <v>0.066543</v>
       </c>
       <c r="H144" t="n">
         <v>21</v>
       </c>
       <c r="I144" t="n">
-        <v>27.21342</v>
+        <v>26.65424</v>
       </c>
       <c r="J144" t="n">
-        <v>19.285368</v>
+        <v>19.061696</v>
       </c>
       <c r="K144" t="n">
         <v>21</v>
       </c>
       <c r="L144" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M144" t="n">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="N144" t="n">
         <v>1</v>
@@ -7959,34 +7959,34 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E145" t="n">
         <v>6</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.5</v>
+        <v>-0.333333</v>
       </c>
       <c r="G145" t="n">
-        <v>0.02623</v>
+        <v>0.026627</v>
       </c>
       <c r="H145" t="n">
         <v>22</v>
       </c>
       <c r="I145" t="n">
-        <v>26.388889</v>
+        <v>25.154321</v>
       </c>
       <c r="J145" t="n">
-        <v>19.355556</v>
+        <v>18.861728</v>
       </c>
       <c r="K145" t="n">
         <v>22</v>
       </c>
       <c r="L145" t="n">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M145" t="n">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="N145" t="n">
         <v>1</v>
@@ -8011,34 +8011,34 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E146" t="n">
         <v>14</v>
       </c>
       <c r="F146" t="n">
-        <v>0.243243</v>
+        <v>0.3</v>
       </c>
       <c r="G146" t="n">
-        <v>0.045067</v>
+        <v>0.045455</v>
       </c>
       <c r="H146" t="n">
         <v>22</v>
       </c>
       <c r="I146" t="n">
-        <v>24.956268</v>
+        <v>24.781341</v>
       </c>
       <c r="J146" t="n">
-        <v>18.782507</v>
+        <v>18.712536</v>
       </c>
       <c r="K146" t="n">
         <v>22</v>
       </c>
       <c r="L146" t="n">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M146" t="n">
-        <v>821</v>
+        <v>880</v>
       </c>
       <c r="N146" t="n">
         <v>1</v>
@@ -8063,34 +8063,34 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E147" t="n">
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.259259</v>
+        <v>-0.0625</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0432</v>
+        <v>0.047904</v>
       </c>
       <c r="H147" t="n">
         <v>23</v>
       </c>
       <c r="I147" t="n">
-        <v>22.267481</v>
+        <v>21.928038</v>
       </c>
       <c r="J147" t="n">
-        <v>18.106992</v>
+        <v>17.971215</v>
       </c>
       <c r="K147" t="n">
         <v>23</v>
       </c>
       <c r="L147" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M147" t="n">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="N147" t="n">
         <v>1</v>
@@ -8115,34 +8115,34 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E148" t="n">
         <v>9</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.285714</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0.040936</v>
+        <v>0.048</v>
       </c>
       <c r="H148" t="n">
         <v>24</v>
       </c>
       <c r="I148" t="n">
-        <v>21.517413</v>
+        <v>20.646766</v>
       </c>
       <c r="J148" t="n">
-        <v>18.206965</v>
+        <v>17.858706</v>
       </c>
       <c r="K148" t="n">
         <v>24</v>
       </c>
       <c r="L148" t="n">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M148" t="n">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="N148" t="n">
         <v>1</v>
@@ -8167,34 +8167,34 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E149" t="n">
         <v>31</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.347826</v>
+        <v>-0.265306</v>
       </c>
       <c r="G149" t="n">
-        <v>0.079723</v>
+        <v>0.074695</v>
       </c>
       <c r="H149" t="n">
         <v>21</v>
       </c>
       <c r="I149" t="n">
-        <v>22.809668</v>
+        <v>22.507553</v>
       </c>
       <c r="J149" t="n">
-        <v>17.523867</v>
+        <v>17.403021</v>
       </c>
       <c r="K149" t="n">
         <v>21</v>
       </c>
       <c r="L149" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M149" t="n">
-        <v>577</v>
+        <v>656</v>
       </c>
       <c r="N149" t="n">
         <v>1</v>
@@ -8228,25 +8228,25 @@
         <v>-0.254237</v>
       </c>
       <c r="G150" t="n">
-        <v>0.067894</v>
+        <v>0.063441</v>
       </c>
       <c r="H150" t="n">
         <v>27</v>
       </c>
       <c r="I150" t="n">
-        <v>24.634543</v>
+        <v>24.417975</v>
       </c>
       <c r="J150" t="n">
-        <v>20.653817</v>
+        <v>20.56719</v>
       </c>
       <c r="K150" t="n">
         <v>27</v>
       </c>
       <c r="L150" t="n">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M150" t="n">
-        <v>869</v>
+        <v>930</v>
       </c>
       <c r="N150" t="n">
         <v>1</v>
@@ -8271,34 +8271,34 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>0.3</v>
+        <v>0.548387</v>
       </c>
       <c r="G151" t="n">
-        <v>0.034483</v>
+        <v>0.046477</v>
       </c>
       <c r="H151" t="n">
         <v>20</v>
       </c>
       <c r="I151" t="n">
-        <v>25.381098</v>
+        <v>25</v>
       </c>
       <c r="J151" t="n">
-        <v>18.152439</v>
+        <v>18</v>
       </c>
       <c r="K151" t="n">
         <v>20</v>
       </c>
       <c r="L151" t="n">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M151" t="n">
-        <v>580</v>
+        <v>667</v>
       </c>
       <c r="N151" t="n">
         <v>1</v>
@@ -8323,34 +8323,34 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E152" t="n">
         <v>3</v>
       </c>
       <c r="F152" t="n">
-        <v>0.76</v>
+        <v>0.785714</v>
       </c>
       <c r="G152" t="n">
-        <v>0.053079</v>
+        <v>0.055888</v>
       </c>
       <c r="H152" t="n">
         <v>24</v>
       </c>
       <c r="I152" t="n">
-        <v>25.708885</v>
+        <v>25.519849</v>
       </c>
       <c r="J152" t="n">
-        <v>19.883554</v>
+        <v>19.80794</v>
       </c>
       <c r="K152" t="n">
         <v>24</v>
       </c>
       <c r="L152" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M152" t="n">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="N152" t="n">
         <v>1</v>
@@ -8375,34 +8375,34 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E153" t="n">
         <v>14</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.037037</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0.055556</v>
+        <v>0.052045</v>
       </c>
       <c r="H153" t="n">
         <v>21</v>
       </c>
       <c r="I153" t="n">
-        <v>24.289643</v>
+        <v>24.014665</v>
       </c>
       <c r="J153" t="n">
-        <v>18.115857</v>
+        <v>18.005866</v>
       </c>
       <c r="K153" t="n">
         <v>21</v>
       </c>
       <c r="L153" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M153" t="n">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="N153" t="n">
         <v>1</v>
@@ -8427,34 +8427,34 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E154" t="n">
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.133333</v>
+        <v>-0.0625</v>
       </c>
       <c r="G154" t="n">
-        <v>0.056604</v>
+        <v>0.055268</v>
       </c>
       <c r="H154" t="n">
         <v>23</v>
       </c>
       <c r="I154" t="n">
-        <v>28.622222</v>
+        <v>28.533333</v>
       </c>
       <c r="J154" t="n">
-        <v>20.648889</v>
+        <v>20.613333</v>
       </c>
       <c r="K154" t="n">
         <v>23</v>
       </c>
       <c r="L154" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M154" t="n">
-        <v>530</v>
+        <v>579</v>
       </c>
       <c r="N154" t="n">
         <v>1</v>
@@ -8479,34 +8479,34 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E155" t="n">
         <v>3</v>
       </c>
       <c r="F155" t="n">
-        <v>0.714286</v>
+        <v>0.76</v>
       </c>
       <c r="G155" t="n">
-        <v>0.03211</v>
+        <v>0.0342</v>
       </c>
       <c r="H155" t="n">
         <v>42</v>
       </c>
       <c r="I155" t="n">
-        <v>27.357811</v>
+        <v>27.141829</v>
       </c>
       <c r="J155" t="n">
-        <v>27.743124</v>
+        <v>27.656732</v>
       </c>
       <c r="K155" t="n">
         <v>42</v>
       </c>
       <c r="L155" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M155" t="n">
-        <v>654</v>
+        <v>731</v>
       </c>
       <c r="N155" t="n">
         <v>1</v>
@@ -8531,34 +8531,34 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
       </c>
       <c r="F156" t="n">
-        <v>0.384615</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="n">
-        <v>0.051081</v>
+        <v>0.057866</v>
       </c>
       <c r="H156" t="n">
         <v>25</v>
       </c>
       <c r="I156" t="n">
-        <v>21.244444</v>
+        <v>20.711111</v>
       </c>
       <c r="J156" t="n">
-        <v>18.497778</v>
+        <v>18.284444</v>
       </c>
       <c r="K156" t="n">
         <v>25</v>
       </c>
       <c r="L156" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M156" t="n">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="N156" t="n">
         <v>1</v>
@@ -8583,34 +8583,34 @@
         </is>
       </c>
       <c r="D157" t="n">
+        <v>8</v>
+      </c>
+      <c r="E157" t="n">
         <v>4</v>
       </c>
-      <c r="E157" t="n">
-        <v>3</v>
-      </c>
       <c r="F157" t="n">
-        <v>0.142857</v>
+        <v>0.333333</v>
       </c>
       <c r="G157" t="n">
-        <v>0.022727</v>
+        <v>0.034188</v>
       </c>
       <c r="H157" t="n">
         <v>31</v>
       </c>
       <c r="I157" t="n">
-        <v>24.011713</v>
+        <v>23.426061</v>
       </c>
       <c r="J157" t="n">
-        <v>22.004685</v>
+        <v>21.770424</v>
       </c>
       <c r="K157" t="n">
         <v>31</v>
       </c>
       <c r="L157" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M157" t="n">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="N157" t="n">
         <v>1</v>
@@ -8644,25 +8644,25 @@
         <v>0.5</v>
       </c>
       <c r="G158" t="n">
-        <v>0.031579</v>
+        <v>0.029268</v>
       </c>
       <c r="H158" t="n">
         <v>22</v>
       </c>
       <c r="I158" t="n">
-        <v>24.756098</v>
+        <v>24.390244</v>
       </c>
       <c r="J158" t="n">
-        <v>18.702439</v>
+        <v>18.556098</v>
       </c>
       <c r="K158" t="n">
         <v>22</v>
       </c>
       <c r="L158" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M158" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="N158" t="n">
         <v>1</v>
@@ -8687,34 +8687,34 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
       </c>
       <c r="F159" t="n">
-        <v>0.354839</v>
+        <v>0.428571</v>
       </c>
       <c r="G159" t="n">
-        <v>0.069351</v>
+        <v>0.072314</v>
       </c>
       <c r="H159" t="n">
         <v>30</v>
       </c>
       <c r="I159" t="n">
-        <v>28.187919</v>
+        <v>27.852349</v>
       </c>
       <c r="J159" t="n">
-        <v>23.275168</v>
+        <v>23.14094</v>
       </c>
       <c r="K159" t="n">
         <v>30</v>
       </c>
       <c r="L159" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M159" t="n">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="N159" t="n">
         <v>1</v>
@@ -8739,16 +8739,16 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E160" t="n">
         <v>3</v>
       </c>
       <c r="F160" t="n">
-        <v>0.4</v>
+        <v>0.454545</v>
       </c>
       <c r="G160" t="n">
-        <v>0.028986</v>
+        <v>0.025463</v>
       </c>
       <c r="H160" t="n">
         <v>28</v>
@@ -8766,7 +8766,7 @@
         <v>187</v>
       </c>
       <c r="M160" t="n">
-        <v>345</v>
+        <v>432</v>
       </c>
       <c r="N160" t="n">
         <v>1</v>
@@ -8791,16 +8791,16 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.238095</v>
+        <v>-0.181818</v>
       </c>
       <c r="G161" t="n">
-        <v>0.056911</v>
+        <v>0.055138</v>
       </c>
       <c r="H161" t="n">
         <v>31</v>
@@ -8818,7 +8818,7 @@
         <v>216</v>
       </c>
       <c r="M161" t="n">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="N161" t="n">
         <v>1</v>
@@ -8843,34 +8843,34 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E162" t="n">
         <v>9</v>
       </c>
       <c r="F162" t="n">
-        <v>0.307692</v>
+        <v>0.4</v>
       </c>
       <c r="G162" t="n">
-        <v>0.061466</v>
+        <v>0.06315800000000001</v>
       </c>
       <c r="H162" t="n">
         <v>36</v>
       </c>
       <c r="I162" t="n">
-        <v>23.281596</v>
+        <v>22.949002</v>
       </c>
       <c r="J162" t="n">
-        <v>23.712638</v>
+        <v>23.579601</v>
       </c>
       <c r="K162" t="n">
         <v>36</v>
       </c>
       <c r="L162" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M162" t="n">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="N162" t="n">
         <v>1</v>
@@ -8895,34 +8895,34 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6</v>
+        <v>0.619048</v>
       </c>
       <c r="G163" t="n">
-        <v>0.057307</v>
+        <v>0.055703</v>
       </c>
       <c r="H163" t="n">
         <v>26</v>
       </c>
       <c r="I163" t="n">
-        <v>28.247734</v>
+        <v>27.794562</v>
       </c>
       <c r="J163" t="n">
-        <v>21.699094</v>
+        <v>21.517825</v>
       </c>
       <c r="K163" t="n">
         <v>26</v>
       </c>
       <c r="L163" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M163" t="n">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="N163" t="n">
         <v>1</v>
@@ -8947,34 +8947,34 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E164" t="n">
         <v>28</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.555556</v>
+        <v>-0.4</v>
       </c>
       <c r="G164" t="n">
-        <v>0.080899</v>
+        <v>0.080972</v>
       </c>
       <c r="H164" t="n">
         <v>29</v>
       </c>
       <c r="I164" t="n">
-        <v>33.574879</v>
+        <v>32.125604</v>
       </c>
       <c r="J164" t="n">
-        <v>25.029952</v>
+        <v>24.450242</v>
       </c>
       <c r="K164" t="n">
         <v>29</v>
       </c>
       <c r="L164" t="n">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="M164" t="n">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="N164" t="n">
         <v>1</v>
@@ -8999,34 +8999,34 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E165" t="n">
         <v>47</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.323944</v>
+        <v>-0.236842</v>
       </c>
       <c r="G165" t="n">
-        <v>0.103953</v>
+        <v>0.102288</v>
       </c>
       <c r="H165" t="n">
         <v>24</v>
       </c>
       <c r="I165" t="n">
-        <v>29.806259</v>
+        <v>29.210134</v>
       </c>
       <c r="J165" t="n">
-        <v>21.522504</v>
+        <v>21.284054</v>
       </c>
       <c r="K165" t="n">
         <v>24</v>
       </c>
       <c r="L165" t="n">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="M165" t="n">
-        <v>683</v>
+        <v>743</v>
       </c>
       <c r="N165" t="n">
         <v>1</v>
@@ -9060,25 +9060,25 @@
         <v>0.428571</v>
       </c>
       <c r="G166" t="n">
-        <v>0.015801</v>
+        <v>0.014028</v>
       </c>
       <c r="H166" t="n">
         <v>25</v>
       </c>
       <c r="I166" t="n">
-        <v>26.444662</v>
+        <v>25.954946</v>
       </c>
       <c r="J166" t="n">
-        <v>20.577865</v>
+        <v>20.381978</v>
       </c>
       <c r="K166" t="n">
         <v>25</v>
       </c>
       <c r="L166" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M166" t="n">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="N166" t="n">
         <v>1</v>
@@ -9103,34 +9103,34 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E167" t="n">
         <v>38</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.490196</v>
+        <v>-0.433962</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06891899999999999</v>
+        <v>0.062871</v>
       </c>
       <c r="H167" t="n">
         <v>25</v>
       </c>
       <c r="I167" t="n">
-        <v>22.706422</v>
+        <v>21.84633</v>
       </c>
       <c r="J167" t="n">
-        <v>19.082569</v>
+        <v>18.738532</v>
       </c>
       <c r="K167" t="n">
         <v>25</v>
       </c>
       <c r="L167" t="n">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="M167" t="n">
-        <v>740</v>
+        <v>843</v>
       </c>
       <c r="N167" t="n">
         <v>1</v>
@@ -9155,34 +9155,34 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E168" t="n">
         <v>12</v>
       </c>
       <c r="F168" t="n">
-        <v>0.25</v>
+        <v>0.272727</v>
       </c>
       <c r="G168" t="n">
-        <v>0.057143</v>
+        <v>0.05641</v>
       </c>
       <c r="H168" t="n">
         <v>29</v>
       </c>
       <c r="I168" t="n">
-        <v>25.454545</v>
+        <v>25.272727</v>
       </c>
       <c r="J168" t="n">
-        <v>21.781818</v>
+        <v>21.709091</v>
       </c>
       <c r="K168" t="n">
         <v>29</v>
       </c>
       <c r="L168" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M168" t="n">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="N168" t="n">
         <v>1</v>
@@ -9216,25 +9216,25 @@
         <v>-0.884615</v>
       </c>
       <c r="G169" t="n">
-        <v>0.09647500000000001</v>
+        <v>0.09319</v>
       </c>
       <c r="H169" t="n">
         <v>21</v>
       </c>
       <c r="I169" t="n">
-        <v>26.164875</v>
+        <v>25.448029</v>
       </c>
       <c r="J169" t="n">
-        <v>18.86595</v>
+        <v>18.579212</v>
       </c>
       <c r="K169" t="n">
         <v>21</v>
       </c>
       <c r="L169" t="n">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M169" t="n">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="N169" t="n">
         <v>1</v>
@@ -9268,25 +9268,25 @@
         <v>-0.428571</v>
       </c>
       <c r="G170" t="n">
-        <v>0.04878</v>
+        <v>0.044164</v>
       </c>
       <c r="H170" t="n">
         <v>24</v>
       </c>
       <c r="I170" t="n">
-        <v>22.222222</v>
+        <v>21.777778</v>
       </c>
       <c r="J170" t="n">
-        <v>18.488889</v>
+        <v>18.311111</v>
       </c>
       <c r="K170" t="n">
         <v>24</v>
       </c>
       <c r="L170" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M170" t="n">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="N170" t="n">
         <v>1</v>
@@ -9311,34 +9311,34 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E171" t="n">
         <v>9</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="G171" t="n">
-        <v>0.026247</v>
+        <v>0.036058</v>
       </c>
       <c r="H171" t="n">
         <v>37</v>
       </c>
       <c r="I171" t="n">
-        <v>21.101993</v>
+        <v>20.28136</v>
       </c>
       <c r="J171" t="n">
-        <v>23.240797</v>
+        <v>22.912544</v>
       </c>
       <c r="K171" t="n">
         <v>37</v>
       </c>
       <c r="L171" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M171" t="n">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="N171" t="n">
         <v>1</v>
